--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D012A3A0-F1F7-4441-9A68-F8BEC0C9049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED5F9C2-CF88-4C18-9A84-58C460798FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="方案多维对比" sheetId="3" r:id="rId3"/>
     <sheet name="conv参数对比" sheetId="4" r:id="rId4"/>
     <sheet name="100w次_定R变K_未考虑降速增益" sheetId="5" r:id="rId5"/>
+    <sheet name="定K变R_从前表数据重排" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
   <si>
     <t>test1</t>
   </si>
@@ -282,6 +283,56 @@
     <t>BER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>g=[5 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=[23 35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=[171 133]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=[561 753]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>K=3</t>
+  </si>
+  <si>
+    <t>K=5</t>
+  </si>
+  <si>
+    <t>K=7</t>
+  </si>
+  <si>
+    <t>K=9</t>
+  </si>
+  <si>
+    <t>误码数量</t>
+  </si>
+  <si>
+    <t>g=[5 7 7 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=[25 27 33 37]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=[135 135 147 163]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=[363 535 733 745]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -353,22 +404,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,15 +434,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{84C86D66-003E-48C6-8ECE-8C6554C2103D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1820,34 +1878,34 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="M1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="S1" s="4" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="S1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3359,20 +3417,20 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="4" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -4229,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7362C4-3CB0-40CA-8B81-EDA4001C7331}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4247,27 +4305,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="M1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4303,7 +4361,7 @@
       <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
@@ -5398,32 +5456,31 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="H29" s="4" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="H29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="M29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="R29" s="4" t="s">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="R29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -5438,7 +5495,7 @@
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="1"/>
@@ -6716,10 +6773,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A446DB2A-0BC3-430F-BE2D-3981631C6427}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6730,7 +6787,7 @@
     <col min="8" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
@@ -6744,9 +6801,12 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6762,7 +6822,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -6778,808 +6838,1734 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-9</v>
       </c>
+      <c r="B4">
+        <v>0.44116</v>
+      </c>
+      <c r="C4">
+        <v>0.48305700000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.49630999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.49596699999999999</v>
+      </c>
       <c r="G4">
         <v>-9</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>112936865</v>
+      </c>
+      <c r="I4">
+        <v>123662705</v>
+      </c>
+      <c r="J4">
+        <v>127055459</v>
+      </c>
+      <c r="K4">
+        <v>126967544</v>
+      </c>
+      <c r="M4">
+        <v>-9</v>
+      </c>
+      <c r="N4">
+        <v>0.30788599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-8</v>
       </c>
+      <c r="B5">
+        <v>0.42206700000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.47494399999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.49434800000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.49419800000000003</v>
+      </c>
       <c r="G5">
         <v>-8</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>108049078</v>
+      </c>
+      <c r="I5">
+        <v>121585768</v>
+      </c>
+      <c r="J5">
+        <v>126553159</v>
+      </c>
+      <c r="K5">
+        <v>126514684</v>
+      </c>
+      <c r="M5">
+        <v>-8</v>
+      </c>
+      <c r="N5">
+        <v>0.28673100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-7</v>
       </c>
+      <c r="B6">
+        <v>0.39647900000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.46237699999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.49072500000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.49118899999999999</v>
+      </c>
       <c r="G6">
         <v>-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>101498659</v>
+      </c>
+      <c r="I6">
+        <v>118368562</v>
+      </c>
+      <c r="J6">
+        <v>125625600</v>
+      </c>
+      <c r="K6">
+        <v>125744336</v>
+      </c>
+      <c r="M6">
+        <v>-7</v>
+      </c>
+      <c r="N6">
+        <v>0.26376899999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
+      <c r="B7">
+        <v>0.36238500000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.44227899999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.48318499999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.48573100000000002</v>
+      </c>
       <c r="G7">
         <v>-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>92770613</v>
+      </c>
+      <c r="I7">
+        <v>113223546</v>
+      </c>
+      <c r="J7">
+        <v>123695457</v>
+      </c>
+      <c r="K7">
+        <v>124347064</v>
+      </c>
+      <c r="M7">
+        <v>-6</v>
+      </c>
+      <c r="N7">
+        <v>0.239179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-5</v>
       </c>
+      <c r="B8">
+        <v>0.31806699999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.40977400000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.46717700000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.47462500000000002</v>
+      </c>
       <c r="G8">
         <v>-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>81425162</v>
+      </c>
+      <c r="I8">
+        <v>104902269</v>
+      </c>
+      <c r="J8">
+        <v>119597194</v>
+      </c>
+      <c r="K8">
+        <v>121504030</v>
+      </c>
+      <c r="M8">
+        <v>-5</v>
+      </c>
+      <c r="N8">
+        <v>0.21321100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-4</v>
       </c>
+      <c r="B9">
+        <v>0.26268799999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.35887400000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.43310199999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.45007999999999998</v>
+      </c>
       <c r="G9">
         <v>-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>67248196</v>
+      </c>
+      <c r="I9">
+        <v>91871802</v>
+      </c>
+      <c r="J9">
+        <v>110874151</v>
+      </c>
+      <c r="K9">
+        <v>115220551</v>
+      </c>
+      <c r="M9">
+        <v>-4</v>
+      </c>
+      <c r="N9">
+        <v>0.18612500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-3</v>
       </c>
+      <c r="B10">
+        <v>0.19869000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.28442699999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.364927</v>
+      </c>
+      <c r="E10">
+        <v>0.39319300000000001</v>
+      </c>
       <c r="G10">
         <v>-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>50864632</v>
+      </c>
+      <c r="I10">
+        <v>72813438</v>
+      </c>
+      <c r="J10">
+        <v>93421390</v>
+      </c>
+      <c r="K10">
+        <v>100657368</v>
+      </c>
+      <c r="M10">
+        <v>-3</v>
+      </c>
+      <c r="N10">
+        <v>0.158364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-2</v>
       </c>
+      <c r="B11">
+        <v>0.13267699999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.191465</v>
+      </c>
+      <c r="D11">
+        <v>0.25269799999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.27819100000000002</v>
+      </c>
       <c r="G11">
         <v>-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>33965237</v>
+      </c>
+      <c r="I11">
+        <v>49014938</v>
+      </c>
+      <c r="J11">
+        <v>64690699</v>
+      </c>
+      <c r="K11">
+        <v>71216902</v>
+      </c>
+      <c r="M11">
+        <v>-2</v>
+      </c>
+      <c r="N11">
+        <v>0.130629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1</v>
       </c>
+      <c r="B12">
+        <v>7.5189000000000006E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.10122399999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.124154</v>
+      </c>
+      <c r="E12">
+        <v>0.127967</v>
+      </c>
       <c r="G12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>19248498</v>
+      </c>
+      <c r="I12">
+        <v>25913308</v>
+      </c>
+      <c r="J12">
+        <v>31783353</v>
+      </c>
+      <c r="K12">
+        <v>32759636</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>0.103778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
+      <c r="B13">
+        <v>3.4773999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.9541E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.9042E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.2346E-2</v>
+      </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>8902262</v>
+      </c>
+      <c r="I13">
+        <v>10122379</v>
+      </c>
+      <c r="J13">
+        <v>9994726</v>
+      </c>
+      <c r="K13">
+        <v>8280661</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>7.8639000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="B14">
+        <v>1.2827E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.1206000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>8.1949999999999992E-3</v>
+      </c>
+      <c r="E14">
+        <v>5.2209999999999999E-3</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>3283663</v>
+      </c>
+      <c r="I14">
+        <v>2868731</v>
+      </c>
+      <c r="J14">
+        <v>2097959</v>
+      </c>
+      <c r="K14">
+        <v>1336555</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>5.6252000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
+      <c r="B15">
+        <v>3.6960000000000001E-3</v>
+      </c>
+      <c r="C15">
+        <v>2.4729999999999999E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.5089999999999999E-3</v>
+      </c>
+      <c r="E15">
+        <v>9.1500000000000001E-4</v>
+      </c>
       <c r="G15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>946053</v>
+      </c>
+      <c r="I15">
+        <v>633213</v>
+      </c>
+      <c r="J15">
+        <v>386409</v>
+      </c>
+      <c r="K15">
+        <v>234193</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3.7501E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
+      <c r="B16">
+        <v>8.5800000000000004E-4</v>
+      </c>
+      <c r="C16">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="D16">
+        <v>3.5799999999999997E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.4600000000000002E-4</v>
+      </c>
       <c r="G16">
         <v>3</v>
       </c>
+      <c r="H16">
+        <v>219733</v>
+      </c>
+      <c r="I16">
+        <v>130551</v>
+      </c>
+      <c r="J16">
+        <v>91690</v>
+      </c>
+      <c r="K16">
+        <v>62944</v>
+      </c>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>2.2880999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
+      <c r="B17">
+        <v>1.76E-4</v>
+      </c>
+      <c r="C17">
+        <v>1.27E-4</v>
+      </c>
+      <c r="D17">
+        <v>1.1E-4</v>
+      </c>
+      <c r="E17">
+        <v>8.2000000000000001E-5</v>
+      </c>
       <c r="G17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>44976</v>
+      </c>
+      <c r="I17">
+        <v>32411</v>
+      </c>
+      <c r="J17">
+        <v>28213</v>
+      </c>
+      <c r="K17">
+        <v>20887</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>1.2492E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
+      <c r="B18">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="C18">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="D18">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="E18">
+        <v>3.0000000000000001E-5</v>
+      </c>
       <c r="G18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>9769</v>
+      </c>
+      <c r="I18">
+        <v>9352</v>
+      </c>
+      <c r="J18">
+        <v>9174</v>
+      </c>
+      <c r="K18">
+        <v>7577</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5.9589999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
+      <c r="B19">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C19">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D19">
+        <v>1.1E-5</v>
+      </c>
+      <c r="E19">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="G19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>2816</v>
+      </c>
+      <c r="I19">
+        <v>2987</v>
+      </c>
+      <c r="J19">
+        <v>2935</v>
+      </c>
+      <c r="K19">
+        <v>2614</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>2.3879999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
+      <c r="B20">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C20">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D20">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E20">
+        <v>3.0000000000000001E-6</v>
+      </c>
       <c r="G20">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="H20">
+        <v>811</v>
+      </c>
+      <c r="I20">
+        <v>770</v>
+      </c>
+      <c r="J20">
+        <v>867</v>
+      </c>
+      <c r="K20">
+        <v>808</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>7.7499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="6" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-9</v>
+      </c>
+      <c r="B26">
+        <v>0.42373</v>
+      </c>
+      <c r="C26">
+        <v>0.44590999999999997</v>
+      </c>
+      <c r="D26">
+        <v>0.47892200000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G26">
+        <v>-9</v>
+      </c>
+      <c r="H26">
+        <v>108474773</v>
+      </c>
+      <c r="I26">
+        <v>114152862</v>
+      </c>
+      <c r="J26">
+        <v>122603987</v>
+      </c>
+      <c r="K26">
+        <v>125952021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-8</v>
+      </c>
+      <c r="B27">
+        <v>0.397818</v>
+      </c>
+      <c r="C27">
+        <v>0.42249500000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.46498099999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.48573899999999998</v>
+      </c>
+      <c r="G27">
+        <v>-8</v>
+      </c>
+      <c r="H27">
+        <v>101841447</v>
+      </c>
+      <c r="I27">
+        <v>108158615</v>
+      </c>
+      <c r="J27">
+        <v>119035100</v>
+      </c>
+      <c r="K27">
+        <v>124349138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-7</v>
+      </c>
+      <c r="B28">
+        <v>0.36272599999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.386569</v>
+      </c>
+      <c r="D28">
+        <v>0.43920700000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.471744</v>
+      </c>
+      <c r="G28">
+        <v>-7</v>
+      </c>
+      <c r="H28">
+        <v>92857797</v>
+      </c>
+      <c r="I28">
+        <v>98961711</v>
+      </c>
+      <c r="J28">
+        <v>112437042</v>
+      </c>
+      <c r="K28">
+        <v>120766517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="B29">
-        <v>0.42373</v>
+        <v>0.31638300000000003</v>
       </c>
       <c r="C29">
-        <v>0.44590999999999997</v>
+        <v>0.33278200000000002</v>
       </c>
       <c r="D29">
-        <v>0.47892200000000001</v>
+        <v>0.39177600000000001</v>
       </c>
       <c r="E29">
-        <v>0.49199999999999999</v>
+        <v>0.43900400000000001</v>
       </c>
       <c r="G29">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="H29">
-        <v>108474773</v>
+        <v>80993988</v>
       </c>
       <c r="I29">
-        <v>114152862</v>
+        <v>85192191</v>
       </c>
       <c r="J29">
-        <v>122603987</v>
+        <v>100294586</v>
       </c>
       <c r="K29">
-        <v>125952021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>112384940</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="B30">
-        <v>0.397818</v>
+        <v>0.25775799999999999</v>
       </c>
       <c r="C30">
-        <v>0.42249500000000001</v>
+        <v>0.25789499999999999</v>
       </c>
       <c r="D30">
-        <v>0.46498099999999998</v>
+        <v>0.310587</v>
       </c>
       <c r="E30">
-        <v>0.48573899999999998</v>
+        <v>0.36550100000000002</v>
       </c>
       <c r="G30">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="H30">
-        <v>101841447</v>
+        <v>65986083</v>
       </c>
       <c r="I30">
-        <v>108158615</v>
+        <v>66021016</v>
       </c>
       <c r="J30">
-        <v>119035100</v>
+        <v>79510288</v>
       </c>
       <c r="K30">
-        <v>124349138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>93568202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="B31">
-        <v>0.36272599999999999</v>
+        <v>0.18978900000000001</v>
       </c>
       <c r="C31">
-        <v>0.386569</v>
+        <v>0.16836100000000001</v>
       </c>
       <c r="D31">
-        <v>0.43920700000000001</v>
+        <v>0.197098</v>
       </c>
       <c r="E31">
-        <v>0.471744</v>
+        <v>0.23464199999999999</v>
       </c>
       <c r="G31">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="H31">
-        <v>92857797</v>
+        <v>48585914</v>
       </c>
       <c r="I31">
-        <v>98961711</v>
+        <v>43100382</v>
       </c>
       <c r="J31">
-        <v>112437042</v>
+        <v>50457167</v>
       </c>
       <c r="K31">
-        <v>120766517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60068285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="B32">
-        <v>0.31638300000000003</v>
+        <v>0.120907</v>
       </c>
       <c r="C32">
-        <v>0.33278200000000002</v>
+        <v>8.5879999999999998E-2</v>
       </c>
       <c r="D32">
-        <v>0.39177600000000001</v>
+        <v>8.795E-2</v>
       </c>
       <c r="E32">
-        <v>0.43900400000000001</v>
+        <v>9.4361E-2</v>
       </c>
       <c r="G32">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="H32">
-        <v>80993988</v>
+        <v>30952200</v>
       </c>
       <c r="I32">
-        <v>85192191</v>
+        <v>21985193</v>
       </c>
       <c r="J32">
-        <v>100294586</v>
+        <v>22515214</v>
       </c>
       <c r="K32">
-        <v>112384940</v>
+        <v>24156417</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="B33">
-        <v>0.25775799999999999</v>
+        <v>6.3721E-2</v>
       </c>
       <c r="C33">
-        <v>0.25789499999999999</v>
+        <v>3.2266999999999997E-2</v>
       </c>
       <c r="D33">
-        <v>0.310587</v>
+        <v>2.5652000000000001E-2</v>
       </c>
       <c r="E33">
-        <v>0.36550100000000002</v>
+        <v>2.1627E-2</v>
       </c>
       <c r="G33">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H33">
-        <v>65986083</v>
+        <v>16312532</v>
       </c>
       <c r="I33">
-        <v>66021016</v>
+        <v>8260391</v>
       </c>
       <c r="J33">
-        <v>79510288</v>
+        <v>6566829</v>
       </c>
       <c r="K33">
-        <v>93568202</v>
+        <v>5536461</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B34">
-        <v>0.18978900000000001</v>
+        <v>2.6525E-2</v>
       </c>
       <c r="C34">
-        <v>0.16836100000000001</v>
+        <v>8.8769999999999995E-3</v>
       </c>
       <c r="D34">
-        <v>0.197098</v>
+        <v>5.3680000000000004E-3</v>
       </c>
       <c r="E34">
-        <v>0.23464199999999999</v>
+        <v>3.6649999999999999E-3</v>
       </c>
       <c r="G34">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="H34">
-        <v>48585914</v>
+        <v>6790454</v>
       </c>
       <c r="I34">
-        <v>43100382</v>
+        <v>2272479</v>
       </c>
       <c r="J34">
-        <v>50457167</v>
+        <v>1374107</v>
       </c>
       <c r="K34">
-        <v>60068285</v>
+        <v>938259</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>0.120907</v>
+        <v>8.5009999999999999E-3</v>
       </c>
       <c r="C35">
-        <v>8.5879999999999998E-2</v>
+        <v>1.9419999999999999E-3</v>
       </c>
       <c r="D35">
-        <v>8.795E-2</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="E35">
-        <v>9.4361E-2</v>
+        <v>8.0099999999999995E-4</v>
       </c>
       <c r="G35">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>30952200</v>
+        <v>2176171</v>
       </c>
       <c r="I35">
-        <v>21985193</v>
+        <v>497215</v>
       </c>
       <c r="J35">
-        <v>22515214</v>
+        <v>289177</v>
       </c>
       <c r="K35">
-        <v>24156417</v>
+        <v>205134</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>6.3721E-2</v>
+        <v>2.065E-3</v>
       </c>
       <c r="C36">
-        <v>3.2266999999999997E-2</v>
+        <v>3.9399999999999998E-4</v>
       </c>
       <c r="D36">
-        <v>2.5652000000000001E-2</v>
+        <v>3.0899999999999998E-4</v>
       </c>
       <c r="E36">
-        <v>2.1627E-2</v>
+        <v>2.4600000000000002E-4</v>
       </c>
       <c r="G36">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>16312532</v>
+        <v>528763</v>
       </c>
       <c r="I36">
-        <v>8260391</v>
+        <v>100952</v>
       </c>
       <c r="J36">
-        <v>6566829</v>
+        <v>79218</v>
       </c>
       <c r="K36">
-        <v>5536461</v>
+        <v>62872</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>2.6525E-2</v>
+        <v>3.9599999999999998E-4</v>
       </c>
       <c r="C37">
-        <v>8.8769999999999995E-3</v>
+        <v>9.2E-5</v>
       </c>
       <c r="D37">
-        <v>5.3680000000000004E-3</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="E37">
-        <v>3.6649999999999999E-3</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>6790454</v>
+        <v>101270</v>
       </c>
       <c r="I37">
-        <v>2272479</v>
+        <v>23486</v>
       </c>
       <c r="J37">
-        <v>1374107</v>
+        <v>24501</v>
       </c>
       <c r="K37">
-        <v>938259</v>
+        <v>20484</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>8.5009999999999999E-3</v>
+        <v>6.2000000000000003E-5</v>
       </c>
       <c r="C38">
-        <v>1.9419999999999999E-3</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="D38">
-        <v>1.1299999999999999E-3</v>
+        <v>2.8E-5</v>
       </c>
       <c r="E38">
-        <v>8.0099999999999995E-4</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>2176171</v>
+        <v>15944</v>
       </c>
       <c r="I38">
-        <v>497215</v>
+        <v>6353</v>
       </c>
       <c r="J38">
-        <v>289177</v>
+        <v>7167</v>
       </c>
       <c r="K38">
-        <v>205134</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>2.065E-3</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="C39">
-        <v>3.9399999999999998E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="D39">
-        <v>3.0899999999999998E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="E39">
-        <v>2.4600000000000002E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>528763</v>
+        <v>2343</v>
       </c>
       <c r="I39">
-        <v>100952</v>
+        <v>1569</v>
       </c>
       <c r="J39">
-        <v>79218</v>
+        <v>1662</v>
       </c>
       <c r="K39">
-        <v>62872</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>3.9599999999999998E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C40">
-        <v>9.2E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D40">
-        <v>9.6000000000000002E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E40">
-        <v>8.0000000000000007E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>101270</v>
+        <v>410</v>
       </c>
       <c r="I40">
-        <v>23486</v>
+        <v>332</v>
       </c>
       <c r="J40">
-        <v>24501</v>
+        <v>349</v>
       </c>
       <c r="K40">
-        <v>20484</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>6.2000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2.5000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2.8E-5</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2.4000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>15944</v>
+        <v>46</v>
       </c>
       <c r="I41">
-        <v>6353</v>
+        <v>50</v>
       </c>
       <c r="J41">
-        <v>7167</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>6126</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
         <v>4</v>
       </c>
-      <c r="B42">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="C42">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="D42">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="E42">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="G42">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <v>-5</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <v>-4</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <v>-3</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>0</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
+        <v>2</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>4</v>
       </c>
-      <c r="H42">
-        <v>2343</v>
-      </c>
-      <c r="I42">
-        <v>1569</v>
-      </c>
-      <c r="J42">
-        <v>1662</v>
-      </c>
-      <c r="K42">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <v>4</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C43">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D43">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E43">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G43">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
         <v>5</v>
       </c>
-      <c r="H43">
-        <v>410</v>
-      </c>
-      <c r="I43">
-        <v>332</v>
-      </c>
-      <c r="J43">
-        <v>349</v>
-      </c>
-      <c r="K43">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>6</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="G44">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
         <v>6</v>
       </c>
-      <c r="H44">
-        <v>46</v>
-      </c>
-      <c r="I44">
-        <v>50</v>
-      </c>
-      <c r="J44">
-        <v>60</v>
-      </c>
-      <c r="K44">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>7</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
         <v>7</v>
       </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
-      </c>
-      <c r="K45">
-        <v>4</v>
-      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A26:K26"/>
+  <mergeCells count="3">
+    <mergeCell ref="A23:K23"/>
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A45:K45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC56F48B-78E1-49B1-9C76-541FB4E98862}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED5F9C2-CF88-4C18-9A84-58C460798FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803BF992-FED3-4BD1-8162-6CE85762CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="conv参数对比" sheetId="4" r:id="rId4"/>
     <sheet name="100w次_定R变K_未考虑降速增益" sheetId="5" r:id="rId5"/>
     <sheet name="定K变R_从前表数据重排" sheetId="6" r:id="rId6"/>
+    <sheet name="10w次_scheme_SNR横轴" sheetId="7" r:id="rId7"/>
+    <sheet name="10w次_scheme_EbN0横轴" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
   <si>
     <t>test1</t>
   </si>
@@ -333,6 +335,42 @@
     <t>g=[363 535 733 745]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>R=1/2 g=[5 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nocode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man,ask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man,bpsk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv+dsss15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv+dsss31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/4 g=[5 7 7 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/3 g=[5 7 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +476,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6775,8 +6816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A446DB2A-0BC3-430F-BE2D-3981631C6427}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8228,290 +8269,562 @@
       <c r="A48" s="3">
         <v>-9</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="3">
+        <v>0.399113</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.39658399999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.45811000000000002</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.47496300000000002</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3">
         <v>-9</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="H48">
+        <v>102173032</v>
+      </c>
+      <c r="I48">
+        <v>101525481</v>
+      </c>
+      <c r="J48">
+        <v>117276145</v>
+      </c>
+      <c r="K48">
+        <v>121590413</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>-8</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="3">
+        <v>0.36424099999999998</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.35274</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.43169000000000002</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.449465</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
         <v>-8</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="H49">
+        <v>93245605</v>
+      </c>
+      <c r="I49">
+        <v>90301356</v>
+      </c>
+      <c r="J49">
+        <v>110512711</v>
+      </c>
+      <c r="K49">
+        <v>115063037</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>-7</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="3">
+        <v>0.31778000000000001</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.29039599999999999</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.38395299999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.39500000000000002</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
         <v>-7</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="H50">
+        <v>81351693</v>
+      </c>
+      <c r="I50">
+        <v>74341482</v>
+      </c>
+      <c r="J50">
+        <v>98291936</v>
+      </c>
+      <c r="K50">
+        <v>101120050</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>-6</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="3">
+        <v>0.25911899999999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.21015300000000001</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.30335800000000002</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.29276600000000003</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
         <v>-6</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="H51">
+        <v>66334358</v>
+      </c>
+      <c r="I51">
+        <v>53799220</v>
+      </c>
+      <c r="J51">
+        <v>77659543</v>
+      </c>
+      <c r="K51">
+        <v>74948034</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>-5</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="3">
+        <v>0.19073300000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.124846</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.190856</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.15590100000000001</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
         <v>-5</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="H52">
+        <v>48827718</v>
+      </c>
+      <c r="I52">
+        <v>31960594</v>
+      </c>
+      <c r="J52">
+        <v>48859076</v>
+      </c>
+      <c r="K52">
+        <v>39910726</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>-4</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="3">
+        <v>0.121444</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5.6857999999999999E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8.3635000000000001E-2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5.1362999999999999E-2</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3">
         <v>-4</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="H53">
+        <v>31089710</v>
+      </c>
+      <c r="I53">
+        <v>14555744</v>
+      </c>
+      <c r="J53">
+        <v>21410647</v>
+      </c>
+      <c r="K53">
+        <v>13148959</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>-3</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="3">
+        <v>6.3605999999999996E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.8903E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2.3692000000000001E-2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1.0991000000000001E-2</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
         <v>-3</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="H54">
+        <v>16283129</v>
+      </c>
+      <c r="I54">
+        <v>4839262</v>
+      </c>
+      <c r="J54">
+        <v>6065090</v>
+      </c>
+      <c r="K54">
+        <v>2813717</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>-2</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="3">
+        <v>2.6068999999999998E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4.7330000000000002E-3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4.8149999999999998E-3</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.3259999999999999E-3</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3">
         <v>-2</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="H55">
+        <v>6673555</v>
+      </c>
+      <c r="I55">
+        <v>1211749</v>
+      </c>
+      <c r="J55">
+        <v>1232619</v>
+      </c>
+      <c r="K55">
+        <v>595403</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>-1</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="B56" s="3">
+        <v>8.1309999999999993E-3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>9.9599999999999992E-4</v>
+      </c>
+      <c r="D56" s="3">
+        <v>9.6900000000000003E-4</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6.8599999999999998E-4</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3">
         <v>-1</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="H56">
+        <v>2081435</v>
+      </c>
+      <c r="I56">
+        <v>254862</v>
+      </c>
+      <c r="J56">
+        <v>248186</v>
+      </c>
+      <c r="K56">
+        <v>175721</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>0</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="3">
+        <v>1.931E-3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2.5799999999999998E-4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2.4399999999999999E-4</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="H57">
+        <v>494287</v>
+      </c>
+      <c r="I57">
+        <v>58084</v>
+      </c>
+      <c r="J57">
+        <v>66022</v>
+      </c>
+      <c r="K57">
+        <v>62556</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="B58" s="3">
+        <v>3.6299999999999999E-4</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8.7000000000000001E-5</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="H58">
+        <v>92933</v>
+      </c>
+      <c r="I58">
+        <v>17331</v>
+      </c>
+      <c r="J58">
+        <v>21434</v>
+      </c>
+      <c r="K58">
+        <v>22244</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>2</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="3">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2.3E-5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2.9E-5</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3">
         <v>2</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="H59">
+        <v>16274</v>
+      </c>
+      <c r="I59">
+        <v>5990</v>
+      </c>
+      <c r="J59">
+        <v>6850</v>
+      </c>
+      <c r="K59">
+        <v>7305</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>3</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="B60" s="3">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D60" s="3">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9.0000000000000002E-6</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="H60">
+        <v>3090</v>
+      </c>
+      <c r="I60">
+        <v>1892</v>
+      </c>
+      <c r="J60">
+        <v>1922</v>
+      </c>
+      <c r="K60">
+        <v>2184</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>4</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="B61" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3">
         <v>4</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="H61">
+        <v>605</v>
+      </c>
+      <c r="I61">
+        <v>511</v>
+      </c>
+      <c r="J61">
+        <v>505</v>
+      </c>
+      <c r="K61">
+        <v>566</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>5</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3">
         <v>5</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="H62">
+        <v>121</v>
+      </c>
+      <c r="I62">
+        <v>116</v>
+      </c>
+      <c r="J62">
+        <v>116</v>
+      </c>
+      <c r="K62">
+        <v>112</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>6</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3">
         <v>6</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="H63">
+        <v>21</v>
+      </c>
+      <c r="I63">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>19</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>7</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3">
         <v>7</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8568,4 +8881,300 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92264D1F-ABC8-4DF4-97A0-BE255C9CB3BE}">
+  <dimension ref="A1:O53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="I52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="I28:O28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A52987-0DCA-4FBD-8D1C-1D294672BA58}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803BF992-FED3-4BD1-8162-6CE85762CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30CA48-595A-4A14-89C8-2B2D85449366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -8885,10 +8885,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92264D1F-ABC8-4DF4-97A0-BE255C9CB3BE}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9146,17 +9146,677 @@
         <v>86</v>
       </c>
     </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>-12</v>
+      </c>
+      <c r="B54">
+        <v>0.429622</v>
+      </c>
+      <c r="C54">
+        <v>0.42950100000000002</v>
+      </c>
+      <c r="D54">
+        <v>0.36124299999999998</v>
+      </c>
+      <c r="E54">
+        <v>0.45784599999999998</v>
+      </c>
+      <c r="F54">
+        <v>2.7820999999999999E-2</v>
+      </c>
+      <c r="G54">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="I54">
+        <v>-12</v>
+      </c>
+      <c r="J54">
+        <v>10998322</v>
+      </c>
+      <c r="K54">
+        <v>10995221</v>
+      </c>
+      <c r="L54">
+        <v>9247829</v>
+      </c>
+      <c r="M54">
+        <v>11720846</v>
+      </c>
+      <c r="N54">
+        <v>712229</v>
+      </c>
+      <c r="O54">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>-10</v>
+      </c>
+      <c r="B55">
+        <v>0.411661</v>
+      </c>
+      <c r="C55">
+        <v>0.41147400000000001</v>
+      </c>
+      <c r="D55">
+        <v>0.32729200000000003</v>
+      </c>
+      <c r="E55">
+        <v>0.42462800000000001</v>
+      </c>
+      <c r="F55">
+        <v>2.137E-3</v>
+      </c>
+      <c r="G55">
+        <v>1.2E-5</v>
+      </c>
+      <c r="I55">
+        <v>-10</v>
+      </c>
+      <c r="J55">
+        <v>10538511</v>
+      </c>
+      <c r="K55">
+        <v>10533739</v>
+      </c>
+      <c r="L55">
+        <v>8378669</v>
+      </c>
+      <c r="M55">
+        <v>10870482</v>
+      </c>
+      <c r="N55">
+        <v>54702</v>
+      </c>
+      <c r="O55">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>-8</v>
+      </c>
+      <c r="B56">
+        <v>0.38921899999999998</v>
+      </c>
+      <c r="C56">
+        <v>0.38934600000000003</v>
+      </c>
+      <c r="D56">
+        <v>0.28672900000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.36386299999999999</v>
+      </c>
+      <c r="F56">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="G56">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I56">
+        <v>-8</v>
+      </c>
+      <c r="J56">
+        <v>9963998</v>
+      </c>
+      <c r="K56">
+        <v>9967256</v>
+      </c>
+      <c r="L56">
+        <v>7340268</v>
+      </c>
+      <c r="M56">
+        <v>9314894</v>
+      </c>
+      <c r="N56">
+        <v>1799</v>
+      </c>
+      <c r="O56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>-6</v>
+      </c>
+      <c r="B57">
+        <v>0.36146499999999998</v>
+      </c>
+      <c r="C57">
+        <v>0.36155700000000002</v>
+      </c>
+      <c r="D57">
+        <v>0.239117</v>
+      </c>
+      <c r="E57">
+        <v>0.25897999999999999</v>
+      </c>
+      <c r="F57">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>-6</v>
+      </c>
+      <c r="J57">
+        <v>9253506</v>
+      </c>
+      <c r="K57">
+        <v>9255856</v>
+      </c>
+      <c r="L57">
+        <v>6121406</v>
+      </c>
+      <c r="M57">
+        <v>6629888</v>
+      </c>
+      <c r="N57">
+        <v>77</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>-4</v>
+      </c>
+      <c r="B58">
+        <v>0.327708</v>
+      </c>
+      <c r="C58">
+        <v>0.32791500000000001</v>
+      </c>
+      <c r="D58">
+        <v>0.186</v>
+      </c>
+      <c r="E58">
+        <v>0.12121899999999999</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>-4</v>
+      </c>
+      <c r="J58">
+        <v>8389322</v>
+      </c>
+      <c r="K58">
+        <v>8394635</v>
+      </c>
+      <c r="L58">
+        <v>4761594</v>
+      </c>
+      <c r="M58">
+        <v>3103202</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>-2</v>
+      </c>
+      <c r="B59">
+        <v>0.28721600000000003</v>
+      </c>
+      <c r="C59">
+        <v>0.28720800000000002</v>
+      </c>
+      <c r="D59">
+        <v>0.130552</v>
+      </c>
+      <c r="E59">
+        <v>2.6081E-2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>-2</v>
+      </c>
+      <c r="J59">
+        <v>7352725</v>
+      </c>
+      <c r="K59">
+        <v>7352535</v>
+      </c>
+      <c r="L59">
+        <v>3342122</v>
+      </c>
+      <c r="M59">
+        <v>667677</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0.23973900000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.23971999999999999</v>
+      </c>
+      <c r="D60">
+        <v>7.8434000000000004E-2</v>
+      </c>
+      <c r="E60">
+        <v>1.9380000000000001E-3</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>6137316</v>
+      </c>
+      <c r="K60">
+        <v>6136834</v>
+      </c>
+      <c r="L60">
+        <v>2007910</v>
+      </c>
+      <c r="M60">
+        <v>49620</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>0.18676000000000001</v>
+      </c>
+      <c r="C61">
+        <v>0.18673000000000001</v>
+      </c>
+      <c r="D61">
+        <v>3.7475000000000001E-2</v>
+      </c>
+      <c r="E61">
+        <v>6.3E-5</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>4781060</v>
+      </c>
+      <c r="K61">
+        <v>4780282</v>
+      </c>
+      <c r="L61">
+        <v>959372</v>
+      </c>
+      <c r="M61">
+        <v>1614</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>0.131079</v>
+      </c>
+      <c r="C62">
+        <v>0.13120599999999999</v>
+      </c>
+      <c r="D62">
+        <v>1.2527999999999999E-2</v>
+      </c>
+      <c r="E62">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>3355627</v>
+      </c>
+      <c r="K62">
+        <v>3358866</v>
+      </c>
+      <c r="L62">
+        <v>320710</v>
+      </c>
+      <c r="M62">
+        <v>59</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>7.918E-2</v>
+      </c>
+      <c r="C63">
+        <v>7.9101000000000005E-2</v>
+      </c>
+      <c r="D63">
+        <v>2.385E-3</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>2027003</v>
+      </c>
+      <c r="K63">
+        <v>2024985</v>
+      </c>
+      <c r="L63">
+        <v>61049</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>3.7858999999999997E-2</v>
+      </c>
+      <c r="C64">
+        <v>3.7858000000000003E-2</v>
+      </c>
+      <c r="D64">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>969201</v>
+      </c>
+      <c r="K64">
+        <v>969173</v>
+      </c>
+      <c r="L64">
+        <v>4860</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>1.2666E-2</v>
+      </c>
+      <c r="C65">
+        <v>1.2647E-2</v>
+      </c>
+      <c r="D65">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>324256</v>
+      </c>
+      <c r="K65">
+        <v>323754</v>
+      </c>
+      <c r="L65">
+        <v>108</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>16</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>2.4220000000000001E-3</v>
+      </c>
+      <c r="C66">
+        <v>2.4429999999999999E-3</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <v>61998</v>
+      </c>
+      <c r="K66">
+        <v>62530</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="C67">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <v>5099</v>
+      </c>
+      <c r="K67">
+        <v>5015</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C68">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>16</v>
+      </c>
+      <c r="J68">
+        <v>103</v>
+      </c>
+      <c r="K68">
+        <v>104</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="I28:O28"/>
     <mergeCell ref="A51:O51"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="I52:O52"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="I28:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30CA48-595A-4A14-89C8-2B2D85449366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C0E12-7315-4C2D-B605-8548F554DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8885,10 +8888,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92264D1F-ABC8-4DF4-97A0-BE255C9CB3BE}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8926,6 +8929,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="9" t="s">
         <v>66</v>
       </c>
@@ -8980,343 +8984,1520 @@
         <v>86</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-12</v>
+      </c>
+      <c r="B24">
+        <v>0.429506</v>
+      </c>
+      <c r="C24">
+        <v>0.42973600000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.36122300000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.46708100000000002</v>
+      </c>
+      <c r="F24">
+        <v>6.6720000000000002E-2</v>
+      </c>
+      <c r="G24">
+        <v>2.0219999999999999E-3</v>
+      </c>
+      <c r="I24">
+        <v>-12</v>
+      </c>
+      <c r="J24">
+        <v>10995346</v>
+      </c>
+      <c r="K24">
+        <v>11001231</v>
+      </c>
+      <c r="L24">
+        <v>9247319</v>
+      </c>
+      <c r="M24">
+        <v>11957282</v>
+      </c>
+      <c r="N24">
+        <v>1708029</v>
+      </c>
+      <c r="O24">
+        <v>51760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-10</v>
+      </c>
+      <c r="B25">
+        <v>0.41140700000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.41156199999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.32735900000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.44277499999999997</v>
+      </c>
+      <c r="F25">
+        <v>9.3369999999999998E-3</v>
+      </c>
+      <c r="G25">
+        <v>6.3E-5</v>
+      </c>
+      <c r="I25">
+        <v>-10</v>
+      </c>
+      <c r="J25">
+        <v>10532031</v>
+      </c>
+      <c r="K25">
+        <v>10535982</v>
+      </c>
+      <c r="L25">
+        <v>8380396</v>
+      </c>
+      <c r="M25">
+        <v>11335034</v>
+      </c>
+      <c r="N25">
+        <v>239028</v>
+      </c>
+      <c r="O25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-8</v>
+      </c>
+      <c r="B26">
+        <v>0.38920300000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.38942700000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.28670400000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.39792699999999998</v>
+      </c>
+      <c r="F26">
+        <v>4.46E-4</v>
+      </c>
+      <c r="G26">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I26">
+        <v>-8</v>
+      </c>
+      <c r="J26">
+        <v>9963594</v>
+      </c>
+      <c r="K26">
+        <v>9969332</v>
+      </c>
+      <c r="L26">
+        <v>7339614</v>
+      </c>
+      <c r="M26">
+        <v>10186938</v>
+      </c>
+      <c r="N26">
+        <v>11412</v>
+      </c>
+      <c r="O26">
+        <v>41</v>
+      </c>
+    </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="A27">
+        <v>-6</v>
+      </c>
+      <c r="B27">
+        <v>0.36140699999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.36166300000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.23919699999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.316303</v>
+      </c>
+      <c r="F27">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>-6</v>
+      </c>
+      <c r="J27">
+        <v>9252021</v>
+      </c>
+      <c r="K27">
+        <v>9258579</v>
+      </c>
+      <c r="L27">
+        <v>6123452</v>
+      </c>
+      <c r="M27">
+        <v>8097355</v>
+      </c>
+      <c r="N27">
+        <v>244</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="B28">
+        <v>0.32780900000000002</v>
+      </c>
+      <c r="C28">
+        <v>0.32796700000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.186196</v>
+      </c>
+      <c r="E28">
+        <v>0.18986600000000001</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>-4</v>
+      </c>
+      <c r="J28">
+        <v>8391923</v>
+      </c>
+      <c r="K28">
+        <v>8395956</v>
+      </c>
+      <c r="L28">
+        <v>4766628</v>
+      </c>
+      <c r="M28">
+        <v>4860568</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-2</v>
+      </c>
+      <c r="B29">
+        <v>0.28717399999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.28720299999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.13059499999999999</v>
+      </c>
+      <c r="E29">
+        <v>6.3656000000000004E-2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>-2</v>
+      </c>
+      <c r="J29">
+        <v>7351659</v>
+      </c>
+      <c r="K29">
+        <v>7352394</v>
+      </c>
+      <c r="L29">
+        <v>3343237</v>
+      </c>
+      <c r="M29">
+        <v>1629601</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.239761</v>
+      </c>
+      <c r="C30">
+        <v>0.23991000000000001</v>
+      </c>
+      <c r="D30">
+        <v>7.8636999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>8.5019999999999991E-3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>6137873</v>
+      </c>
+      <c r="K30">
+        <v>6141687</v>
+      </c>
+      <c r="L30">
+        <v>2013099</v>
+      </c>
+      <c r="M30">
+        <v>217664</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.186588</v>
+      </c>
+      <c r="C31">
+        <v>0.18673799999999999</v>
+      </c>
+      <c r="D31">
+        <v>3.7575999999999998E-2</v>
+      </c>
+      <c r="E31">
+        <v>3.9500000000000001E-4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>4776649</v>
+      </c>
+      <c r="K31">
+        <v>4780498</v>
+      </c>
+      <c r="L31">
+        <v>961948</v>
+      </c>
+      <c r="M31">
+        <v>10105</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.13126699999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.13133600000000001</v>
+      </c>
+      <c r="D32">
+        <v>1.2472E-2</v>
+      </c>
+      <c r="E32">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>3360426</v>
+      </c>
+      <c r="K32">
+        <v>3362213</v>
+      </c>
+      <c r="L32">
+        <v>319284</v>
+      </c>
+      <c r="M32">
+        <v>226</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>7.9182000000000002E-2</v>
+      </c>
+      <c r="C33">
+        <v>7.9156000000000004E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.3960000000000001E-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>2027048</v>
+      </c>
+      <c r="K33">
+        <v>2026388</v>
+      </c>
+      <c r="L33">
+        <v>61326</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>3.7865999999999997E-2</v>
+      </c>
+      <c r="C34">
+        <v>3.7865000000000003E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.93E-4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>969374</v>
+      </c>
+      <c r="K34">
+        <v>969350</v>
+      </c>
+      <c r="L34">
+        <v>4939</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1.2644000000000001E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.2651000000000001E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>323693</v>
+      </c>
+      <c r="K35">
+        <v>323853</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>2.4510000000000001E-3</v>
+      </c>
+      <c r="C36">
+        <v>2.444E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>62746</v>
+      </c>
+      <c r="K36">
+        <v>62558</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="C37">
+        <v>2.03E-4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>5097</v>
+      </c>
+      <c r="K37">
+        <v>5197</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C38">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>95</v>
+      </c>
+      <c r="K38">
+        <v>93</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="I28" s="9" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-12</v>
+      </c>
+      <c r="B44">
+        <v>0.429622</v>
+      </c>
+      <c r="C44">
+        <v>0.42950100000000002</v>
+      </c>
+      <c r="D44">
+        <v>0.36124299999999998</v>
+      </c>
+      <c r="E44">
+        <v>0.45784599999999998</v>
+      </c>
+      <c r="F44">
+        <v>2.7820999999999999E-2</v>
+      </c>
+      <c r="G44">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="I44">
+        <v>-12</v>
+      </c>
+      <c r="J44">
+        <v>10998322</v>
+      </c>
+      <c r="K44">
+        <v>10995221</v>
+      </c>
+      <c r="L44">
+        <v>9247829</v>
+      </c>
+      <c r="M44">
+        <v>11720846</v>
+      </c>
+      <c r="N44">
+        <v>712229</v>
+      </c>
+      <c r="O44">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>-10</v>
+      </c>
+      <c r="B45">
+        <v>0.411661</v>
+      </c>
+      <c r="C45">
+        <v>0.41147400000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.32729200000000003</v>
+      </c>
+      <c r="E45">
+        <v>0.42462800000000001</v>
+      </c>
+      <c r="F45">
+        <v>2.137E-3</v>
+      </c>
+      <c r="G45">
+        <v>1.2E-5</v>
+      </c>
+      <c r="I45">
+        <v>-10</v>
+      </c>
+      <c r="J45">
+        <v>10538511</v>
+      </c>
+      <c r="K45">
+        <v>10533739</v>
+      </c>
+      <c r="L45">
+        <v>8378669</v>
+      </c>
+      <c r="M45">
+        <v>10870482</v>
+      </c>
+      <c r="N45">
+        <v>54702</v>
+      </c>
+      <c r="O45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-8</v>
+      </c>
+      <c r="B46">
+        <v>0.38921899999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.38934600000000003</v>
+      </c>
+      <c r="D46">
+        <v>0.28672900000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.36386299999999999</v>
+      </c>
+      <c r="F46">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="G46">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I46">
+        <v>-8</v>
+      </c>
+      <c r="J46">
+        <v>9963998</v>
+      </c>
+      <c r="K46">
+        <v>9967256</v>
+      </c>
+      <c r="L46">
+        <v>7340268</v>
+      </c>
+      <c r="M46">
+        <v>9314894</v>
+      </c>
+      <c r="N46">
+        <v>1799</v>
+      </c>
+      <c r="O46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-6</v>
+      </c>
+      <c r="B47">
+        <v>0.36146499999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.36155700000000002</v>
+      </c>
+      <c r="D47">
+        <v>0.239117</v>
+      </c>
+      <c r="E47">
+        <v>0.25897999999999999</v>
+      </c>
+      <c r="F47">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>-6</v>
+      </c>
+      <c r="J47">
+        <v>9253506</v>
+      </c>
+      <c r="K47">
+        <v>9255856</v>
+      </c>
+      <c r="L47">
+        <v>6121406</v>
+      </c>
+      <c r="M47">
+        <v>6629888</v>
+      </c>
+      <c r="N47">
+        <v>77</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-4</v>
+      </c>
+      <c r="B48">
+        <v>0.327708</v>
+      </c>
+      <c r="C48">
+        <v>0.32791500000000001</v>
+      </c>
+      <c r="D48">
+        <v>0.186</v>
+      </c>
+      <c r="E48">
+        <v>0.12121899999999999</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>-4</v>
+      </c>
+      <c r="J48">
+        <v>8389322</v>
+      </c>
+      <c r="K48">
+        <v>8394635</v>
+      </c>
+      <c r="L48">
+        <v>4761594</v>
+      </c>
+      <c r="M48">
+        <v>3103202</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>-2</v>
+      </c>
+      <c r="B49">
+        <v>0.28721600000000003</v>
+      </c>
+      <c r="C49">
+        <v>0.28720800000000002</v>
+      </c>
+      <c r="D49">
+        <v>0.130552</v>
+      </c>
+      <c r="E49">
+        <v>2.6081E-2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>-2</v>
+      </c>
+      <c r="J49">
+        <v>7352725</v>
+      </c>
+      <c r="K49">
+        <v>7352535</v>
+      </c>
+      <c r="L49">
+        <v>3342122</v>
+      </c>
+      <c r="M49">
+        <v>667677</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0.23973900000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.23971999999999999</v>
+      </c>
+      <c r="D50">
+        <v>7.8434000000000004E-2</v>
+      </c>
+      <c r="E50">
+        <v>1.9380000000000001E-3</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>6137316</v>
+      </c>
+      <c r="K50">
+        <v>6136834</v>
+      </c>
+      <c r="L50">
+        <v>2007910</v>
+      </c>
+      <c r="M50">
+        <v>49620</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>0.18676000000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.18673000000000001</v>
+      </c>
+      <c r="D51">
+        <v>3.7475000000000001E-2</v>
+      </c>
+      <c r="E51">
+        <v>6.3E-5</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>4781060</v>
+      </c>
+      <c r="K51">
+        <v>4780282</v>
+      </c>
+      <c r="L51">
+        <v>959372</v>
+      </c>
+      <c r="M51">
+        <v>1614</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="I52" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>0.131079</v>
+      </c>
+      <c r="C52">
+        <v>0.13120599999999999</v>
+      </c>
+      <c r="D52">
+        <v>1.2527999999999999E-2</v>
+      </c>
+      <c r="E52">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>3355627</v>
+      </c>
+      <c r="K52">
+        <v>3358866</v>
+      </c>
+      <c r="L52">
+        <v>320710</v>
+      </c>
+      <c r="M52">
+        <v>59</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>86</v>
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>7.918E-2</v>
+      </c>
+      <c r="C53">
+        <v>7.9101000000000005E-2</v>
+      </c>
+      <c r="D53">
+        <v>2.385E-3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>2027003</v>
+      </c>
+      <c r="K53">
+        <v>2024985</v>
+      </c>
+      <c r="L53">
+        <v>61049</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>0.429622</v>
+        <v>3.7858999999999997E-2</v>
       </c>
       <c r="C54">
-        <v>0.42950100000000002</v>
+        <v>3.7858000000000003E-2</v>
       </c>
       <c r="D54">
-        <v>0.36124299999999998</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="E54">
-        <v>0.45784599999999998</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2.7820999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>3.5500000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="J54">
-        <v>10998322</v>
+        <v>969201</v>
       </c>
       <c r="K54">
-        <v>10995221</v>
+        <v>969173</v>
       </c>
       <c r="L54">
-        <v>9247829</v>
+        <v>4860</v>
       </c>
       <c r="M54">
-        <v>11720846</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>712229</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>9080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>0.411661</v>
+        <v>1.2666E-2</v>
       </c>
       <c r="C55">
-        <v>0.41147400000000001</v>
+        <v>1.2647E-2</v>
       </c>
       <c r="D55">
-        <v>0.32729200000000003</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E55">
-        <v>0.42462800000000001</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2.137E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="G55">
-        <v>1.2E-5</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J55">
-        <v>10538511</v>
+        <v>324256</v>
       </c>
       <c r="K55">
-        <v>10533739</v>
+        <v>323754</v>
       </c>
       <c r="L55">
-        <v>8378669</v>
+        <v>108</v>
       </c>
       <c r="M55">
-        <v>10870482</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>54702</v>
+        <v>16</v>
       </c>
       <c r="O55">
-        <v>314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>0.38921899999999998</v>
+        <v>2.4220000000000001E-3</v>
       </c>
       <c r="C56">
-        <v>0.38934600000000003</v>
+        <v>2.4429999999999999E-3</v>
       </c>
       <c r="D56">
-        <v>0.28672900000000001</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.36386299999999999</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>6.9999999999999994E-5</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="J56">
-        <v>9963998</v>
+        <v>61998</v>
       </c>
       <c r="K56">
-        <v>9967256</v>
+        <v>62530</v>
       </c>
       <c r="L56">
-        <v>7340268</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>9314894</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>1799</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>0.36146499999999998</v>
+        <v>1.9900000000000001E-4</v>
       </c>
       <c r="C57">
-        <v>0.36155700000000002</v>
+        <v>1.9599999999999999E-4</v>
       </c>
       <c r="D57">
-        <v>0.239117</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.25897999999999999</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>3.0000000000000001E-6</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="J57">
-        <v>9253506</v>
+        <v>5099</v>
       </c>
       <c r="K57">
-        <v>9255856</v>
+        <v>5015</v>
       </c>
       <c r="L57">
-        <v>6121406</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>6629888</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -9324,19 +10505,19 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>0.327708</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="C58">
-        <v>0.32791500000000001</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="D58">
-        <v>0.186</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.12121899999999999</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -9345,478 +10526,38 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="J58">
-        <v>8389322</v>
+        <v>103</v>
       </c>
       <c r="K58">
-        <v>8394635</v>
+        <v>104</v>
       </c>
       <c r="L58">
-        <v>4761594</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>3103202</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>-2</v>
-      </c>
-      <c r="B59">
-        <v>0.28721600000000003</v>
-      </c>
-      <c r="C59">
-        <v>0.28720800000000002</v>
-      </c>
-      <c r="D59">
-        <v>0.130552</v>
-      </c>
-      <c r="E59">
-        <v>2.6081E-2</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>-2</v>
-      </c>
-      <c r="J59">
-        <v>7352725</v>
-      </c>
-      <c r="K59">
-        <v>7352535</v>
-      </c>
-      <c r="L59">
-        <v>3342122</v>
-      </c>
-      <c r="M59">
-        <v>667677</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>0.23973900000000001</v>
-      </c>
-      <c r="C60">
-        <v>0.23971999999999999</v>
-      </c>
-      <c r="D60">
-        <v>7.8434000000000004E-2</v>
-      </c>
-      <c r="E60">
-        <v>1.9380000000000001E-3</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>6137316</v>
-      </c>
-      <c r="K60">
-        <v>6136834</v>
-      </c>
-      <c r="L60">
-        <v>2007910</v>
-      </c>
-      <c r="M60">
-        <v>49620</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>0.18676000000000001</v>
-      </c>
-      <c r="C61">
-        <v>0.18673000000000001</v>
-      </c>
-      <c r="D61">
-        <v>3.7475000000000001E-2</v>
-      </c>
-      <c r="E61">
-        <v>6.3E-5</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61">
-        <v>4781060</v>
-      </c>
-      <c r="K61">
-        <v>4780282</v>
-      </c>
-      <c r="L61">
-        <v>959372</v>
-      </c>
-      <c r="M61">
-        <v>1614</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>0.131079</v>
-      </c>
-      <c r="C62">
-        <v>0.13120599999999999</v>
-      </c>
-      <c r="D62">
-        <v>1.2527999999999999E-2</v>
-      </c>
-      <c r="E62">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>4</v>
-      </c>
-      <c r="J62">
-        <v>3355627</v>
-      </c>
-      <c r="K62">
-        <v>3358866</v>
-      </c>
-      <c r="L62">
-        <v>320710</v>
-      </c>
-      <c r="M62">
-        <v>59</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>7.918E-2</v>
-      </c>
-      <c r="C63">
-        <v>7.9101000000000005E-2</v>
-      </c>
-      <c r="D63">
-        <v>2.385E-3</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>6</v>
-      </c>
-      <c r="J63">
-        <v>2027003</v>
-      </c>
-      <c r="K63">
-        <v>2024985</v>
-      </c>
-      <c r="L63">
-        <v>61049</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>8</v>
-      </c>
-      <c r="B64">
-        <v>3.7858999999999997E-2</v>
-      </c>
-      <c r="C64">
-        <v>3.7858000000000003E-2</v>
-      </c>
-      <c r="D64">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>8</v>
-      </c>
-      <c r="J64">
-        <v>969201</v>
-      </c>
-      <c r="K64">
-        <v>969173</v>
-      </c>
-      <c r="L64">
-        <v>4860</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>1.2666E-2</v>
-      </c>
-      <c r="C65">
-        <v>1.2647E-2</v>
-      </c>
-      <c r="D65">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>10</v>
-      </c>
-      <c r="J65">
-        <v>324256</v>
-      </c>
-      <c r="K65">
-        <v>323754</v>
-      </c>
-      <c r="L65">
-        <v>108</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>16</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>12</v>
-      </c>
-      <c r="B66">
-        <v>2.4220000000000001E-3</v>
-      </c>
-      <c r="C66">
-        <v>2.4429999999999999E-3</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>12</v>
-      </c>
-      <c r="J66">
-        <v>61998</v>
-      </c>
-      <c r="K66">
-        <v>62530</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>14</v>
-      </c>
-      <c r="B67">
-        <v>1.9900000000000001E-4</v>
-      </c>
-      <c r="C67">
-        <v>1.9599999999999999E-4</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>14</v>
-      </c>
-      <c r="J67">
-        <v>5099</v>
-      </c>
-      <c r="K67">
-        <v>5015</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>16</v>
-      </c>
-      <c r="B68">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="C68">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>16</v>
-      </c>
-      <c r="J68">
-        <v>103</v>
-      </c>
-      <c r="K68">
-        <v>104</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="I42:O42"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="A41:O41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C0E12-7315-4C2D-B605-8548F554DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF162E-4F19-4B66-9F92-CA6B41A87F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="定K变R_从前表数据重排" sheetId="6" r:id="rId6"/>
     <sheet name="10w次_scheme_SNR横轴" sheetId="7" r:id="rId7"/>
     <sheet name="10w次_scheme_EbN0横轴" sheetId="8" r:id="rId8"/>
+    <sheet name="20w次_scheme_EbN0横轴" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>test1</t>
   </si>
@@ -371,6 +372,14 @@
     <t>R=1/3 g=[5 7 7]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Eb/N0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -466,6 +475,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1922,34 +1931,34 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="S1" s="5" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="S1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3461,20 +3470,20 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="5" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="G31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -4349,27 +4358,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5500,31 +5509,31 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="H29" s="5" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="H29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="M29" s="5" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="M29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="R29" s="5" t="s">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="R29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -6832,19 +6841,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7563,19 +7572,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -8188,19 +8197,19 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -8852,13 +8861,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8890,8 +8899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92264D1F-ABC8-4DF4-97A0-BE255C9CB3BE}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8901,44 +8910,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -8985,119 +8994,704 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-12</v>
+      </c>
+      <c r="B4">
+        <v>0.42935299999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.42952000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.36129299999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.474022</v>
+      </c>
+      <c r="F4">
+        <v>0.13672899999999999</v>
+      </c>
+      <c r="G4">
+        <v>1.2674E-2</v>
+      </c>
       <c r="I4">
         <v>-12</v>
       </c>
+      <c r="J4">
+        <v>10991437</v>
+      </c>
+      <c r="K4">
+        <v>10995701</v>
+      </c>
+      <c r="L4">
+        <v>9249095</v>
+      </c>
+      <c r="M4">
+        <v>12134963</v>
+      </c>
+      <c r="N4">
+        <v>3500266</v>
+      </c>
+      <c r="O4">
+        <v>324458</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-10</v>
+      </c>
+      <c r="B5">
+        <v>0.41151100000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.41143299999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.32734400000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.45528999999999997</v>
+      </c>
+      <c r="F5">
+        <v>3.6967E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.4000000000000003E-4</v>
+      </c>
       <c r="I5">
         <v>-10</v>
       </c>
+      <c r="J5">
+        <v>10534673</v>
+      </c>
+      <c r="K5">
+        <v>10532677</v>
+      </c>
+      <c r="L5">
+        <v>8379998</v>
+      </c>
+      <c r="M5">
+        <v>11655424</v>
+      </c>
+      <c r="N5">
+        <v>946352</v>
+      </c>
+      <c r="O5">
+        <v>21508</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <v>0.38911499999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.38913500000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.28672599999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.42229</v>
+      </c>
+      <c r="F6">
+        <v>4.0920000000000002E-3</v>
+      </c>
+      <c r="G6">
+        <v>3.8999999999999999E-5</v>
+      </c>
       <c r="I6">
         <v>-8</v>
       </c>
+      <c r="J6">
+        <v>9961338</v>
+      </c>
+      <c r="K6">
+        <v>9961861</v>
+      </c>
+      <c r="L6">
+        <v>7340182</v>
+      </c>
+      <c r="M6">
+        <v>10810632</v>
+      </c>
+      <c r="N6">
+        <v>104762</v>
+      </c>
+      <c r="O6">
+        <v>1008</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>0.36156300000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.36158899999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.23922199999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.36228399999999999</v>
+      </c>
+      <c r="F7">
+        <v>2.03E-4</v>
+      </c>
+      <c r="G7">
+        <v>3.0000000000000001E-6</v>
+      </c>
       <c r="I7">
         <v>-6</v>
       </c>
+      <c r="J7">
+        <v>9256022</v>
+      </c>
+      <c r="K7">
+        <v>9256687</v>
+      </c>
+      <c r="L7">
+        <v>6124075</v>
+      </c>
+      <c r="M7">
+        <v>9274467</v>
+      </c>
+      <c r="N7">
+        <v>5186</v>
+      </c>
+      <c r="O7">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="B8">
+        <v>0.32785799999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.32786900000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.186108</v>
+      </c>
+      <c r="E8">
+        <v>0.26283499999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>-4</v>
       </c>
+      <c r="J8">
+        <v>8393177</v>
+      </c>
+      <c r="K8">
+        <v>8393440</v>
+      </c>
+      <c r="L8">
+        <v>4764372</v>
+      </c>
+      <c r="M8">
+        <v>6728584</v>
+      </c>
+      <c r="N8">
+        <v>324</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <v>0.28711500000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.28721200000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.13069800000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.13269900000000001</v>
+      </c>
+      <c r="F9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>-2</v>
       </c>
+      <c r="J9">
+        <v>7350133</v>
+      </c>
+      <c r="K9">
+        <v>7352624</v>
+      </c>
+      <c r="L9">
+        <v>3345860</v>
+      </c>
+      <c r="M9">
+        <v>3397084</v>
+      </c>
+      <c r="N9">
+        <v>21</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.23985500000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.23971999999999999</v>
+      </c>
+      <c r="D10">
+        <v>7.8645000000000007E-2</v>
+      </c>
+      <c r="E10">
+        <v>3.4889999999999997E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>6140278</v>
+      </c>
+      <c r="K10">
+        <v>6136838</v>
+      </c>
+      <c r="L10">
+        <v>2013324</v>
+      </c>
+      <c r="M10">
+        <v>893187</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.18681300000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.18668199999999999</v>
+      </c>
+      <c r="D11">
+        <v>3.7502000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.718E-3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="J11">
+        <v>4782412</v>
+      </c>
+      <c r="K11">
+        <v>4779054</v>
+      </c>
+      <c r="L11">
+        <v>960059</v>
+      </c>
+      <c r="M11">
+        <v>95187</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.13126299999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.13128600000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.2475E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.73E-4</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>4</v>
       </c>
+      <c r="J12">
+        <v>3360322</v>
+      </c>
+      <c r="K12">
+        <v>3360929</v>
+      </c>
+      <c r="L12">
+        <v>319364</v>
+      </c>
+      <c r="M12">
+        <v>4430</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>7.9139000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>7.9188999999999996E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.3839999999999998E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.1E-5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>6</v>
       </c>
+      <c r="J13">
+        <v>2025964</v>
+      </c>
+      <c r="K13">
+        <v>2027240</v>
+      </c>
+      <c r="L13">
+        <v>61035</v>
+      </c>
+      <c r="M13">
+        <v>271</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.7858000000000003E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.7880999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.93E-4</v>
+      </c>
+      <c r="E14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>8</v>
       </c>
+      <c r="J14">
+        <v>969155</v>
+      </c>
+      <c r="K14">
+        <v>969756</v>
+      </c>
+      <c r="L14">
+        <v>4952</v>
+      </c>
+      <c r="M14">
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1.2688E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.2725999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>10</v>
       </c>
+      <c r="J15">
+        <v>324819</v>
+      </c>
+      <c r="K15">
+        <v>325793</v>
+      </c>
+      <c r="L15">
+        <v>99</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="C16">
+        <v>2.415E-3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <v>12</v>
       </c>
+      <c r="J16">
+        <v>62454</v>
+      </c>
+      <c r="K16">
+        <v>61834</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1.95E-4</v>
+      </c>
+      <c r="C17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>14</v>
       </c>
+      <c r="J17">
+        <v>4996</v>
+      </c>
+      <c r="K17">
+        <v>5125</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>16</v>
       </c>
+      <c r="J18">
+        <v>112</v>
+      </c>
+      <c r="K18">
+        <v>115</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -9804,44 +10398,44 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -10567,14 +11161,1150 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A52987-0DCA-4FBD-8D1C-1D294672BA58}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection sqref="A1:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-12</v>
+      </c>
+      <c r="B24">
+        <v>0.42965100000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.42948900000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.49015700000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.35599900000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.17220199999999999</v>
+      </c>
+      <c r="I24">
+        <v>-12</v>
+      </c>
+      <c r="J24">
+        <v>10999078</v>
+      </c>
+      <c r="K24">
+        <v>10994908</v>
+      </c>
+      <c r="L24">
+        <v>9244150</v>
+      </c>
+      <c r="M24">
+        <v>12548031</v>
+      </c>
+      <c r="N24">
+        <v>9113584</v>
+      </c>
+      <c r="O24">
+        <v>4408381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-10</v>
+      </c>
+      <c r="B25">
+        <v>0.411437</v>
+      </c>
+      <c r="C25">
+        <v>0.41154000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.48425699999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.24679400000000001</v>
+      </c>
+      <c r="G25">
+        <v>5.2242999999999998E-2</v>
+      </c>
+      <c r="I25">
+        <v>-10</v>
+      </c>
+      <c r="J25">
+        <v>10532786</v>
+      </c>
+      <c r="K25">
+        <v>10535419</v>
+      </c>
+      <c r="L25">
+        <v>8381435</v>
+      </c>
+      <c r="M25">
+        <v>12396978</v>
+      </c>
+      <c r="N25">
+        <v>6317915</v>
+      </c>
+      <c r="O25">
+        <v>1337417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-8</v>
+      </c>
+      <c r="B26">
+        <v>0.38916200000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.389096</v>
+      </c>
+      <c r="D26">
+        <v>0.28672500000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.473408</v>
+      </c>
+      <c r="F26">
+        <v>0.11011899999999999</v>
+      </c>
+      <c r="G26">
+        <v>6.1289999999999999E-3</v>
+      </c>
+      <c r="I26">
+        <v>-8</v>
+      </c>
+      <c r="J26">
+        <v>9962546</v>
+      </c>
+      <c r="K26">
+        <v>9960865</v>
+      </c>
+      <c r="L26">
+        <v>7340150</v>
+      </c>
+      <c r="M26">
+        <v>12119234</v>
+      </c>
+      <c r="N26">
+        <v>2819041</v>
+      </c>
+      <c r="O26">
+        <v>156895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-6</v>
+      </c>
+      <c r="B27">
+        <v>0.36159400000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.36153200000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.23907700000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.45407199999999998</v>
+      </c>
+      <c r="F27">
+        <v>2.2388000000000002E-2</v>
+      </c>
+      <c r="G27">
+        <v>2.5399999999999999E-4</v>
+      </c>
+      <c r="I27">
+        <v>-6</v>
+      </c>
+      <c r="J27">
+        <v>9256817</v>
+      </c>
+      <c r="K27">
+        <v>9255226</v>
+      </c>
+      <c r="L27">
+        <v>6120381</v>
+      </c>
+      <c r="M27">
+        <v>11624235</v>
+      </c>
+      <c r="N27">
+        <v>573142</v>
+      </c>
+      <c r="O27">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="B28">
+        <v>0.32787500000000003</v>
+      </c>
+      <c r="C28">
+        <v>0.32769199999999998</v>
+      </c>
+      <c r="D28">
+        <v>0.18617</v>
+      </c>
+      <c r="E28">
+        <v>0.418466</v>
+      </c>
+      <c r="F28">
+        <v>1.622E-3</v>
+      </c>
+      <c r="G28">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="I28">
+        <v>-4</v>
+      </c>
+      <c r="J28">
+        <v>8393597</v>
+      </c>
+      <c r="K28">
+        <v>8388907</v>
+      </c>
+      <c r="L28">
+        <v>4765944</v>
+      </c>
+      <c r="M28">
+        <v>10712732</v>
+      </c>
+      <c r="N28">
+        <v>41522</v>
+      </c>
+      <c r="O28">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-2</v>
+      </c>
+      <c r="B29">
+        <v>0.28726200000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.28709400000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.130658</v>
+      </c>
+      <c r="E29">
+        <v>0.35336600000000001</v>
+      </c>
+      <c r="F29">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>-2</v>
+      </c>
+      <c r="J29">
+        <v>7353908</v>
+      </c>
+      <c r="K29">
+        <v>7349618</v>
+      </c>
+      <c r="L29">
+        <v>3344855</v>
+      </c>
+      <c r="M29">
+        <v>9046160</v>
+      </c>
+      <c r="N29">
+        <v>1228</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.239838</v>
+      </c>
+      <c r="C30">
+        <v>0.23963699999999999</v>
+      </c>
+      <c r="D30">
+        <v>7.8653000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.24299499999999999</v>
+      </c>
+      <c r="F30">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>6139865</v>
+      </c>
+      <c r="K30">
+        <v>6134705</v>
+      </c>
+      <c r="L30">
+        <v>2013513</v>
+      </c>
+      <c r="M30">
+        <v>6220669</v>
+      </c>
+      <c r="N30">
+        <v>30</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.18670800000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.18665399999999999</v>
+      </c>
+      <c r="D31">
+        <v>3.7560000000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.1066</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>4779728</v>
+      </c>
+      <c r="K31">
+        <v>4778335</v>
+      </c>
+      <c r="L31">
+        <v>961539</v>
+      </c>
+      <c r="M31">
+        <v>2728967</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.13123499999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.131026</v>
+      </c>
+      <c r="D32">
+        <v>1.2518E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.0930000000000001E-2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>3359627</v>
+      </c>
+      <c r="K32">
+        <v>3354256</v>
+      </c>
+      <c r="L32">
+        <v>320462</v>
+      </c>
+      <c r="M32">
+        <v>535810</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>7.9160999999999995E-2</v>
+      </c>
+      <c r="C33">
+        <v>7.9155000000000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.4139999999999999E-3</v>
+      </c>
+      <c r="E33">
+        <v>1.433E-3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>2026517</v>
+      </c>
+      <c r="K33">
+        <v>2026371</v>
+      </c>
+      <c r="L33">
+        <v>61796</v>
+      </c>
+      <c r="M33">
+        <v>36695</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>3.7836000000000002E-2</v>
+      </c>
+      <c r="C34">
+        <v>3.7816000000000002E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.94E-4</v>
+      </c>
+      <c r="E34">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>968614</v>
+      </c>
+      <c r="K34">
+        <v>968079</v>
+      </c>
+      <c r="L34">
+        <v>4970</v>
+      </c>
+      <c r="M34">
+        <v>1067</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1.2697999999999999E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.2659E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E35">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>325061</v>
+      </c>
+      <c r="K35">
+        <v>324078</v>
+      </c>
+      <c r="L35">
+        <v>103</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>2.4229999999999998E-3</v>
+      </c>
+      <c r="C36">
+        <v>2.4420000000000002E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>62036</v>
+      </c>
+      <c r="K36">
+        <v>62507</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="C37">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>5069</v>
+      </c>
+      <c r="K37">
+        <v>5054</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C38">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>104</v>
+      </c>
+      <c r="K38">
+        <v>122</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="I42:O42"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868094-2645-4311-A60E-30E531845CF5}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:O2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF162E-4F19-4B66-9F92-CA6B41A87F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA90C8-BEBD-4F88-B840-B84062D46983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -11163,8 +11163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A52987-0DCA-4FBD-8D1C-1D294672BA58}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11254,78 +11254,663 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-12</v>
+      </c>
+      <c r="B4">
+        <v>0.42951</v>
+      </c>
+      <c r="C4">
+        <v>0.42962699999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.36116599999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.48786499999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.32151099999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.132158</v>
+      </c>
       <c r="I4">
         <v>-12</v>
       </c>
+      <c r="J4">
+        <v>10995464</v>
+      </c>
+      <c r="K4">
+        <v>10998452</v>
+      </c>
+      <c r="L4">
+        <v>9245852</v>
+      </c>
+      <c r="M4">
+        <v>12489333</v>
+      </c>
+      <c r="N4">
+        <v>8230683</v>
+      </c>
+      <c r="O4">
+        <v>3383236</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-10</v>
+      </c>
+      <c r="B5">
+        <v>0.411694</v>
+      </c>
+      <c r="C5">
+        <v>0.41148299999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.32744299999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.479962</v>
+      </c>
+      <c r="F5">
+        <v>0.20322399999999999</v>
+      </c>
+      <c r="G5">
+        <v>3.4785999999999997E-2</v>
+      </c>
       <c r="I5">
         <v>-10</v>
       </c>
+      <c r="J5">
+        <v>10539359</v>
+      </c>
+      <c r="K5">
+        <v>10533953</v>
+      </c>
+      <c r="L5">
+        <v>8382553</v>
+      </c>
+      <c r="M5">
+        <v>12287021</v>
+      </c>
+      <c r="N5">
+        <v>5202531</v>
+      </c>
+      <c r="O5">
+        <v>890517</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <v>0.38925900000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.38932</v>
+      </c>
+      <c r="D6">
+        <v>0.28662700000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.46609699999999998</v>
+      </c>
+      <c r="F6">
+        <v>7.8950000000000006E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.7030000000000001E-3</v>
+      </c>
       <c r="I6">
         <v>-8</v>
       </c>
+      <c r="J6">
+        <v>9965021</v>
+      </c>
+      <c r="K6">
+        <v>9966590</v>
+      </c>
+      <c r="L6">
+        <v>7337644</v>
+      </c>
+      <c r="M6">
+        <v>11932092</v>
+      </c>
+      <c r="N6">
+        <v>2021123</v>
+      </c>
+      <c r="O6">
+        <v>94785</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>0.36145500000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.36164600000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.23919499999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.441444</v>
+      </c>
+      <c r="F7">
+        <v>1.3955E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.7699999999999999E-4</v>
+      </c>
       <c r="I7">
         <v>-6</v>
       </c>
+      <c r="J7">
+        <v>9253253</v>
+      </c>
+      <c r="K7">
+        <v>9258148</v>
+      </c>
+      <c r="L7">
+        <v>6123391</v>
+      </c>
+      <c r="M7">
+        <v>11300959</v>
+      </c>
+      <c r="N7">
+        <v>357237</v>
+      </c>
+      <c r="O7">
+        <v>4538</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="B8">
+        <v>0.32776499999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.32780500000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.186196</v>
+      </c>
+      <c r="E8">
+        <v>0.39677400000000002</v>
+      </c>
+      <c r="F8">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="G8">
+        <v>1.1E-5</v>
+      </c>
       <c r="I8">
         <v>-4</v>
       </c>
+      <c r="J8">
+        <v>8390796</v>
+      </c>
+      <c r="K8">
+        <v>8391804</v>
+      </c>
+      <c r="L8">
+        <v>4766627</v>
+      </c>
+      <c r="M8">
+        <v>10157421</v>
+      </c>
+      <c r="N8">
+        <v>24954</v>
+      </c>
+      <c r="O8">
+        <v>273</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <v>0.28714899999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.287269</v>
+      </c>
+      <c r="D9">
+        <v>0.13070499999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.31865599999999999</v>
+      </c>
+      <c r="F9">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="G9">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I9">
         <v>-2</v>
       </c>
+      <c r="J9">
+        <v>7351016</v>
+      </c>
+      <c r="K9">
+        <v>7354091</v>
+      </c>
+      <c r="L9">
+        <v>3346042</v>
+      </c>
+      <c r="M9">
+        <v>8157593</v>
+      </c>
+      <c r="N9">
+        <v>1155</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.23971400000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.23965700000000001</v>
+      </c>
+      <c r="D10">
+        <v>7.8673999999999994E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.19927</v>
+      </c>
+      <c r="F10">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>6136672</v>
+      </c>
+      <c r="K10">
+        <v>6135213</v>
+      </c>
+      <c r="L10">
+        <v>2014064</v>
+      </c>
+      <c r="M10">
+        <v>5101315</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.18672</v>
+      </c>
+      <c r="C11">
+        <v>0.186838</v>
+      </c>
+      <c r="D11">
+        <v>3.7486999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>7.5731000000000007E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="J11">
+        <v>4780039</v>
+      </c>
+      <c r="K11">
+        <v>4783045</v>
+      </c>
+      <c r="L11">
+        <v>959656</v>
+      </c>
+      <c r="M11">
+        <v>1938718</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.13123899999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.13123399999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.2498E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.2995E-2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>4</v>
       </c>
+      <c r="J12">
+        <v>3359708</v>
+      </c>
+      <c r="K12">
+        <v>3359595</v>
+      </c>
+      <c r="L12">
+        <v>319940</v>
+      </c>
+      <c r="M12">
+        <v>332681</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>7.9161999999999996E-2</v>
+      </c>
+      <c r="C13">
+        <v>7.9200999999999994E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.3909999999999999E-3</v>
+      </c>
+      <c r="E13">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>6</v>
       </c>
+      <c r="J13">
+        <v>2026535</v>
+      </c>
+      <c r="K13">
+        <v>2027539</v>
+      </c>
+      <c r="L13">
+        <v>61197</v>
+      </c>
+      <c r="M13">
+        <v>22271</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.7837999999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.7846999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.93E-4</v>
+      </c>
+      <c r="E14">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>8</v>
       </c>
+      <c r="J14">
+        <v>968652</v>
+      </c>
+      <c r="K14">
+        <v>968888</v>
+      </c>
+      <c r="L14">
+        <v>4941</v>
+      </c>
+      <c r="M14">
+        <v>972</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1.2716E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.2644000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>10</v>
       </c>
+      <c r="J15">
+        <v>325523</v>
+      </c>
+      <c r="K15">
+        <v>323683</v>
+      </c>
+      <c r="L15">
+        <v>103</v>
+      </c>
+      <c r="M15">
+        <v>76</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2.447E-3</v>
+      </c>
+      <c r="C16">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <v>12</v>
       </c>
+      <c r="J16">
+        <v>62636</v>
+      </c>
+      <c r="K16">
+        <v>62714</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="C17">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>14</v>
       </c>
+      <c r="J17">
+        <v>5091</v>
+      </c>
+      <c r="K17">
+        <v>5012</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>16</v>
+      </c>
+      <c r="J18">
+        <v>105</v>
+      </c>
+      <c r="K18">
+        <v>96</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -12134,7 +12719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868094-2645-4311-A60E-30E531845CF5}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA90C8-BEBD-4F88-B840-B84062D46983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4014B-FDA8-41A4-83BF-74FC1C81556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="10w次_scheme_SNR横轴" sheetId="7" r:id="rId7"/>
     <sheet name="10w次_scheme_EbN0横轴" sheetId="8" r:id="rId8"/>
     <sheet name="20w次_scheme_EbN0横轴" sheetId="9" r:id="rId9"/>
+    <sheet name="1E6_difRsameK_EbN0" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
   <si>
     <t>test1</t>
   </si>
@@ -378,6 +379,10 @@
   </si>
   <si>
     <t>ERR_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K=3, g=[5 7]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,6 +1781,84 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD83A1-2233-4A7B-9BE3-77F5B1566D51}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C62B77-8BD9-4655-81AC-EFBCEAA8F16E}">
   <dimension ref="A1:J14"/>
@@ -11161,13 +11244,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A52987-0DCA-4FBD-8D1C-1D294672BA58}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
@@ -12696,6 +12782,665 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-12</v>
+      </c>
+      <c r="B44">
+        <v>0.429477</v>
+      </c>
+      <c r="C44">
+        <v>0.42965999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.361207</v>
+      </c>
+      <c r="E44">
+        <v>0.49123299999999998</v>
+      </c>
+      <c r="F44">
+        <v>0.367448</v>
+      </c>
+      <c r="G44">
+        <v>0.191027</v>
+      </c>
+      <c r="J44">
+        <v>10994621</v>
+      </c>
+      <c r="K44">
+        <v>10999302</v>
+      </c>
+      <c r="L44">
+        <v>9246911</v>
+      </c>
+      <c r="M44">
+        <v>12575566</v>
+      </c>
+      <c r="N44">
+        <v>9406665</v>
+      </c>
+      <c r="O44">
+        <v>4890288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>-10</v>
+      </c>
+      <c r="B45">
+        <v>0.411582</v>
+      </c>
+      <c r="C45">
+        <v>0.41143299999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.32739299999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.48540899999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.264125</v>
+      </c>
+      <c r="G45">
+        <v>6.3403000000000001E-2</v>
+      </c>
+      <c r="J45">
+        <v>10536503</v>
+      </c>
+      <c r="K45">
+        <v>10532694</v>
+      </c>
+      <c r="L45">
+        <v>8381258</v>
+      </c>
+      <c r="M45">
+        <v>12426463</v>
+      </c>
+      <c r="N45">
+        <v>6761593</v>
+      </c>
+      <c r="O45">
+        <v>1623113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-8</v>
+      </c>
+      <c r="B46">
+        <v>0.38921699999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.38916600000000001</v>
+      </c>
+      <c r="D46">
+        <v>0.28671200000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.47542699999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.12670500000000001</v>
+      </c>
+      <c r="G46">
+        <v>8.2170000000000003E-3</v>
+      </c>
+      <c r="J46">
+        <v>9963968</v>
+      </c>
+      <c r="K46">
+        <v>9962641</v>
+      </c>
+      <c r="L46">
+        <v>7339838</v>
+      </c>
+      <c r="M46">
+        <v>12170935</v>
+      </c>
+      <c r="N46">
+        <v>3243653</v>
+      </c>
+      <c r="O46">
+        <v>210344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-6</v>
+      </c>
+      <c r="B47">
+        <v>0.36159400000000003</v>
+      </c>
+      <c r="C47">
+        <v>0.36156300000000002</v>
+      </c>
+      <c r="D47">
+        <v>0.23915400000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.45774500000000001</v>
+      </c>
+      <c r="F47">
+        <v>2.8447E-2</v>
+      </c>
+      <c r="G47">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="J47">
+        <v>9256801</v>
+      </c>
+      <c r="K47">
+        <v>9256011</v>
+      </c>
+      <c r="L47">
+        <v>6122347</v>
+      </c>
+      <c r="M47">
+        <v>11718265</v>
+      </c>
+      <c r="N47">
+        <v>728239</v>
+      </c>
+      <c r="O47">
+        <v>9221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-4</v>
+      </c>
+      <c r="B48">
+        <v>0.32772200000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.32777699999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.185922</v>
+      </c>
+      <c r="E48">
+        <v>0.42543700000000001</v>
+      </c>
+      <c r="F48">
+        <v>2.2179999999999999E-3</v>
+      </c>
+      <c r="G48">
+        <v>1.2E-5</v>
+      </c>
+      <c r="J48">
+        <v>8389691</v>
+      </c>
+      <c r="K48">
+        <v>8391096</v>
+      </c>
+      <c r="L48">
+        <v>4759596</v>
+      </c>
+      <c r="M48">
+        <v>10891197</v>
+      </c>
+      <c r="N48">
+        <v>56777</v>
+      </c>
+      <c r="O48">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>-2</v>
+      </c>
+      <c r="B49">
+        <v>0.28722300000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.287163</v>
+      </c>
+      <c r="D49">
+        <v>0.13048999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.36509999999999998</v>
+      </c>
+      <c r="F49">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="G49">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J49">
+        <v>7352921</v>
+      </c>
+      <c r="K49">
+        <v>7351381</v>
+      </c>
+      <c r="L49">
+        <v>3340538</v>
+      </c>
+      <c r="M49">
+        <v>9346555</v>
+      </c>
+      <c r="N49">
+        <v>1908</v>
+      </c>
+      <c r="O49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0.239618</v>
+      </c>
+      <c r="C50">
+        <v>0.239817</v>
+      </c>
+      <c r="D50">
+        <v>7.8656000000000004E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.26039800000000002</v>
+      </c>
+      <c r="F50">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>6134209</v>
+      </c>
+      <c r="K50">
+        <v>6139324</v>
+      </c>
+      <c r="L50">
+        <v>2013590</v>
+      </c>
+      <c r="M50">
+        <v>6666197</v>
+      </c>
+      <c r="N50">
+        <v>77</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>0.18656400000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.186697</v>
+      </c>
+      <c r="D51">
+        <v>3.7441000000000002E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.123011</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4776034</v>
+      </c>
+      <c r="K51">
+        <v>4779441</v>
+      </c>
+      <c r="L51">
+        <v>958489</v>
+      </c>
+      <c r="M51">
+        <v>3149087</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>0.13119700000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.13126599999999999</v>
+      </c>
+      <c r="D52">
+        <v>1.2484E-2</v>
+      </c>
+      <c r="E52">
+        <v>2.6648000000000002E-2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3358646</v>
+      </c>
+      <c r="K52">
+        <v>3360422</v>
+      </c>
+      <c r="L52">
+        <v>319597</v>
+      </c>
+      <c r="M52">
+        <v>682184</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>7.9163999999999998E-2</v>
+      </c>
+      <c r="C53">
+        <v>7.9101000000000005E-2</v>
+      </c>
+      <c r="D53">
+        <v>2.3909999999999999E-3</v>
+      </c>
+      <c r="E53">
+        <v>1.9919999999999998E-3</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2026599</v>
+      </c>
+      <c r="K53">
+        <v>2024995</v>
+      </c>
+      <c r="L53">
+        <v>61210</v>
+      </c>
+      <c r="M53">
+        <v>50999</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>3.7867999999999999E-2</v>
+      </c>
+      <c r="C54">
+        <v>3.7900999999999997E-2</v>
+      </c>
+      <c r="D54">
+        <v>1.8599999999999999E-4</v>
+      </c>
+      <c r="E54">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>969425</v>
+      </c>
+      <c r="K54">
+        <v>970274</v>
+      </c>
+      <c r="L54">
+        <v>4774</v>
+      </c>
+      <c r="M54">
+        <v>1550</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>1.2662E-2</v>
+      </c>
+      <c r="C55">
+        <v>1.2676E-2</v>
+      </c>
+      <c r="D55">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E55">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>324135</v>
+      </c>
+      <c r="K55">
+        <v>324510</v>
+      </c>
+      <c r="L55">
+        <v>104</v>
+      </c>
+      <c r="M55">
+        <v>60</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>2.428E-3</v>
+      </c>
+      <c r="C56">
+        <v>2.441E-3</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>62155</v>
+      </c>
+      <c r="K56">
+        <v>62477</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="C57">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4894</v>
+      </c>
+      <c r="K57">
+        <v>5072</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C58">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>107</v>
+      </c>
+      <c r="K58">
+        <v>108</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12717,13 +13462,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868094-2645-4311-A60E-30E531845CF5}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
@@ -12874,23 +13622,348 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I18">
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="I42:O42"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="I22:O22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4014B-FDA8-41A4-83BF-74FC1C81556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89399BFA-17B1-477E-9C11-E96F053286A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -1785,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD83A1-2233-4A7B-9BE3-77F5B1566D51}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -11246,7 +11246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A52987-0DCA-4FBD-8D1C-1D294672BA58}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -13464,8 +13464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868094-2645-4311-A60E-30E531845CF5}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13558,78 +13558,663 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-12</v>
+      </c>
+      <c r="B4">
+        <v>0.42958600000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.42948199999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.36114200000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.48795500000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.32138899999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.13195699999999999</v>
+      </c>
       <c r="I4">
         <v>-12</v>
       </c>
+      <c r="J4">
+        <v>21994823</v>
+      </c>
+      <c r="K4">
+        <v>21989467</v>
+      </c>
+      <c r="L4">
+        <v>18490450</v>
+      </c>
+      <c r="M4">
+        <v>24983314</v>
+      </c>
+      <c r="N4">
+        <v>16455122</v>
+      </c>
+      <c r="O4">
+        <v>6756187</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-10</v>
+      </c>
+      <c r="B5">
+        <v>0.41153000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.41154000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.32735300000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.48005300000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.203264</v>
+      </c>
+      <c r="G5">
+        <v>3.4634999999999999E-2</v>
+      </c>
       <c r="I5">
         <v>-10</v>
       </c>
+      <c r="J5">
+        <v>21070357</v>
+      </c>
+      <c r="K5">
+        <v>21070870</v>
+      </c>
+      <c r="L5">
+        <v>16760475</v>
+      </c>
+      <c r="M5">
+        <v>24578726</v>
+      </c>
+      <c r="N5">
+        <v>10407120</v>
+      </c>
+      <c r="O5">
+        <v>1773318</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <v>0.38925199999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.38925999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.28671799999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.46600200000000003</v>
+      </c>
+      <c r="F6">
+        <v>7.9041E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.6809999999999998E-3</v>
+      </c>
       <c r="I6">
         <v>-8</v>
       </c>
+      <c r="J6">
+        <v>19929679</v>
+      </c>
+      <c r="K6">
+        <v>19930124</v>
+      </c>
+      <c r="L6">
+        <v>14679973</v>
+      </c>
+      <c r="M6">
+        <v>23859277</v>
+      </c>
+      <c r="N6">
+        <v>4046918</v>
+      </c>
+      <c r="O6">
+        <v>188474</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.36158400000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.23929300000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.44133699999999998</v>
+      </c>
+      <c r="F7">
+        <v>1.4036E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.8000000000000001E-4</v>
+      </c>
       <c r="I7">
         <v>-6</v>
       </c>
+      <c r="J7">
+        <v>18508807</v>
+      </c>
+      <c r="K7">
+        <v>18513120</v>
+      </c>
+      <c r="L7">
+        <v>12251793</v>
+      </c>
+      <c r="M7">
+        <v>22596472</v>
+      </c>
+      <c r="N7">
+        <v>718626</v>
+      </c>
+      <c r="O7">
+        <v>9226</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="B8">
+        <v>0.32768900000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.32777800000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.18609899999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.39665</v>
+      </c>
+      <c r="F8">
+        <v>9.8499999999999998E-4</v>
+      </c>
+      <c r="G8">
+        <v>1.2E-5</v>
+      </c>
       <c r="I8">
         <v>-4</v>
       </c>
+      <c r="J8">
+        <v>16777666</v>
+      </c>
+      <c r="K8">
+        <v>16782240</v>
+      </c>
+      <c r="L8">
+        <v>9528273</v>
+      </c>
+      <c r="M8">
+        <v>20308505</v>
+      </c>
+      <c r="N8">
+        <v>50418</v>
+      </c>
+      <c r="O8">
+        <v>599</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <v>0.28717599999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.28720099999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.13070999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="F9">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="G9">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I9">
         <v>-2</v>
       </c>
+      <c r="J9">
+        <v>14703431</v>
+      </c>
+      <c r="K9">
+        <v>14704714</v>
+      </c>
+      <c r="L9">
+        <v>6692359</v>
+      </c>
+      <c r="M9">
+        <v>16300029</v>
+      </c>
+      <c r="N9">
+        <v>2322</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.23982400000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.23976600000000001</v>
+      </c>
+      <c r="D10">
+        <v>7.8660999999999995E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.19942199999999999</v>
+      </c>
+      <c r="F10">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>12279002</v>
+      </c>
+      <c r="K10">
+        <v>12275997</v>
+      </c>
+      <c r="L10">
+        <v>4027442</v>
+      </c>
+      <c r="M10">
+        <v>10210404</v>
+      </c>
+      <c r="N10">
+        <v>199</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.186725</v>
+      </c>
+      <c r="C11">
+        <v>0.18673200000000001</v>
+      </c>
+      <c r="D11">
+        <v>3.7525000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <v>7.5669E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="J11">
+        <v>9560330</v>
+      </c>
+      <c r="K11">
+        <v>9560679</v>
+      </c>
+      <c r="L11">
+        <v>1921301</v>
+      </c>
+      <c r="M11">
+        <v>3874248</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.131215</v>
+      </c>
+      <c r="C12">
+        <v>0.13122300000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.2479000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.2929E-2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>4</v>
       </c>
+      <c r="J12">
+        <v>6718227</v>
+      </c>
+      <c r="K12">
+        <v>6718598</v>
+      </c>
+      <c r="L12">
+        <v>638917</v>
+      </c>
+      <c r="M12">
+        <v>661970</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>7.9188999999999996E-2</v>
+      </c>
+      <c r="C13">
+        <v>7.9131999999999994E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.4109999999999999E-3</v>
+      </c>
+      <c r="E13">
+        <v>8.7399999999999999E-4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>6</v>
       </c>
+      <c r="J13">
+        <v>4054466</v>
+      </c>
+      <c r="K13">
+        <v>4051580</v>
+      </c>
+      <c r="L13">
+        <v>123427</v>
+      </c>
+      <c r="M13">
+        <v>44753</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.7871000000000002E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.7836000000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="E14">
+        <v>4.1E-5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>8</v>
       </c>
+      <c r="J14">
+        <v>1939008</v>
+      </c>
+      <c r="K14">
+        <v>1937207</v>
+      </c>
+      <c r="L14">
+        <v>9720</v>
+      </c>
+      <c r="M14">
+        <v>2075</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1.2648E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.2675000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>10</v>
       </c>
+      <c r="J15">
+        <v>647588</v>
+      </c>
+      <c r="K15">
+        <v>648968</v>
+      </c>
+      <c r="L15">
+        <v>179</v>
+      </c>
+      <c r="M15">
+        <v>164</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2.4390000000000002E-3</v>
+      </c>
+      <c r="C16">
+        <v>2.4369999999999999E-3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <v>12</v>
       </c>
+      <c r="J16">
+        <v>124874</v>
+      </c>
+      <c r="K16">
+        <v>124773</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="C17">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>14</v>
       </c>
+      <c r="J17">
+        <v>10125</v>
+      </c>
+      <c r="K17">
+        <v>10144</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>16</v>
+      </c>
+      <c r="J18">
+        <v>215</v>
+      </c>
+      <c r="K18">
+        <v>199</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89399BFA-17B1-477E-9C11-E96F053286A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14864E3A-41B0-470E-870E-96AF47D09577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="2955" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
   <si>
     <t>test1</t>
   </si>
@@ -382,8 +382,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K=3, g=[5 7]</t>
+    <t>K=3, g=[5 7] [5 7 7] [5 7 7 7]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNTIME=120059</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1783,46 +1790,85 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD83A1-2233-4A7B-9BE3-77F5B1566D51}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="3.75" customWidth="1"/>
+    <col min="6" max="6" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="M2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1835,27 +1881,1093 @@
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-12</v>
+      </c>
+      <c r="B4">
+        <v>0.48791099999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.490369</v>
+      </c>
+      <c r="D4">
+        <v>0.491066</v>
+      </c>
+      <c r="E4">
+        <v>0.36118899999999998</v>
+      </c>
+      <c r="G4">
+        <v>-12</v>
+      </c>
+      <c r="H4">
+        <v>124905148</v>
+      </c>
+      <c r="I4">
+        <v>125534346</v>
+      </c>
+      <c r="J4">
+        <v>125712893</v>
+      </c>
+      <c r="K4">
+        <v>92464380</v>
+      </c>
+      <c r="M4">
+        <v>-12</v>
+      </c>
+      <c r="N4">
+        <v>0.48789500000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.49763000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.499143</v>
+      </c>
+      <c r="Q4">
+        <v>0.499087</v>
+      </c>
+      <c r="R4">
+        <v>0.36115599999999998</v>
+      </c>
+      <c r="T4">
+        <v>-12</v>
+      </c>
+      <c r="U4">
+        <v>127</v>
+      </c>
+      <c r="V4">
+        <v>149</v>
+      </c>
+      <c r="W4">
+        <v>125</v>
+      </c>
+      <c r="X4">
+        <v>133</v>
+      </c>
+      <c r="Y4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-10</v>
+      </c>
+      <c r="B5">
+        <v>0.47987800000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.48410399999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.48527399999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.32729599999999998</v>
+      </c>
+      <c r="G5">
+        <v>-10</v>
+      </c>
+      <c r="H5">
+        <v>122848789</v>
+      </c>
+      <c r="I5">
+        <v>123930719</v>
+      </c>
+      <c r="J5">
+        <v>124230148</v>
+      </c>
+      <c r="K5">
+        <v>83787775</v>
+      </c>
+      <c r="M5">
+        <v>-10</v>
+      </c>
+      <c r="N5">
+        <v>0.47980299999999998</v>
+      </c>
+      <c r="O5">
+        <v>0.49563099999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.49873600000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.49865300000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.327403</v>
+      </c>
+      <c r="T5">
+        <v>-10</v>
+      </c>
+      <c r="U5">
+        <v>109</v>
+      </c>
+      <c r="V5">
+        <v>141</v>
+      </c>
+      <c r="W5">
+        <v>133</v>
+      </c>
+      <c r="X5">
+        <v>135</v>
+      </c>
+      <c r="Y5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <v>0.46605400000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.47328599999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.47541299999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.28670099999999998</v>
+      </c>
+      <c r="G6">
+        <v>-8</v>
+      </c>
+      <c r="H6">
+        <v>119309831</v>
+      </c>
+      <c r="I6">
+        <v>121161109</v>
+      </c>
+      <c r="J6">
+        <v>121705661</v>
+      </c>
+      <c r="K6">
+        <v>73395426</v>
+      </c>
+      <c r="M6">
+        <v>-8</v>
+      </c>
+      <c r="N6">
+        <v>0.46612599999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.491784</v>
+      </c>
+      <c r="P6">
+        <v>0.49797200000000003</v>
+      </c>
+      <c r="Q6">
+        <v>0.49776300000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.28671200000000002</v>
+      </c>
+      <c r="T6">
+        <v>-8</v>
+      </c>
+      <c r="U6">
+        <v>104</v>
+      </c>
+      <c r="V6">
+        <v>128</v>
+      </c>
+      <c r="W6">
+        <v>146</v>
+      </c>
+      <c r="X6">
+        <v>118</v>
+      </c>
+      <c r="Y6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>0.44139</v>
+      </c>
+      <c r="C7">
+        <v>0.45405600000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.45777099999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.23921200000000001</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>112995742</v>
+      </c>
+      <c r="I7">
+        <v>116238354</v>
+      </c>
+      <c r="J7">
+        <v>117189353</v>
+      </c>
+      <c r="K7">
+        <v>61238328</v>
+      </c>
+      <c r="M7">
+        <v>-6</v>
+      </c>
+      <c r="N7">
+        <v>0.44120599999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.482929</v>
+      </c>
+      <c r="P7">
+        <v>0.49617699999999998</v>
+      </c>
+      <c r="Q7">
+        <v>0.495923</v>
+      </c>
+      <c r="R7">
+        <v>0.23915900000000001</v>
+      </c>
+      <c r="T7">
+        <v>-6</v>
+      </c>
+      <c r="U7">
+        <v>119</v>
+      </c>
+      <c r="V7">
+        <v>116</v>
+      </c>
+      <c r="W7">
+        <v>139</v>
+      </c>
+      <c r="X7">
+        <v>134</v>
+      </c>
+      <c r="Y7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="B8">
+        <v>0.396702</v>
+      </c>
+      <c r="C8">
+        <v>0.418597</v>
+      </c>
+      <c r="D8">
+        <v>0.42529600000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.18610699999999999</v>
+      </c>
+      <c r="G8">
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <v>101555705</v>
+      </c>
+      <c r="I8">
+        <v>107160826</v>
+      </c>
+      <c r="J8">
+        <v>108875728</v>
+      </c>
+      <c r="K8">
+        <v>47643507</v>
+      </c>
+      <c r="M8">
+        <v>-4</v>
+      </c>
+      <c r="N8">
+        <v>0.39658199999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.46248299999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.49099399999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.491396</v>
+      </c>
+      <c r="R8">
+        <v>0.186141</v>
+      </c>
+      <c r="T8">
+        <v>-4</v>
+      </c>
+      <c r="U8">
+        <v>109</v>
+      </c>
+      <c r="V8">
+        <v>136</v>
+      </c>
+      <c r="W8">
+        <v>105</v>
+      </c>
+      <c r="X8">
+        <v>133</v>
+      </c>
+      <c r="Y8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <v>0.31856800000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.35320699999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.36496000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.13061400000000001</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>81553295</v>
+      </c>
+      <c r="I9">
+        <v>90421059</v>
+      </c>
+      <c r="J9">
+        <v>93429862</v>
+      </c>
+      <c r="K9">
+        <v>33437289</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9">
+        <v>0.31864100000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.40997600000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.467561</v>
+      </c>
+      <c r="Q9">
+        <v>0.47470800000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.13059799999999999</v>
+      </c>
+      <c r="T9">
+        <v>-2</v>
+      </c>
+      <c r="U9">
+        <v>44</v>
+      </c>
+      <c r="V9">
+        <v>99</v>
+      </c>
+      <c r="W9">
+        <v>104</v>
+      </c>
+      <c r="X9">
+        <v>136</v>
+      </c>
+      <c r="Y9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.199377</v>
+      </c>
+      <c r="C10">
+        <v>0.242809</v>
+      </c>
+      <c r="D10">
+        <v>0.260384</v>
+      </c>
+      <c r="E10">
+        <v>7.8640000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>51040448</v>
+      </c>
+      <c r="I10">
+        <v>62159045</v>
+      </c>
+      <c r="J10">
+        <v>66658189</v>
+      </c>
+      <c r="K10">
+        <v>20131840</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.19936300000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.28521200000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.366143</v>
+      </c>
+      <c r="Q10">
+        <v>0.39420699999999997</v>
+      </c>
+      <c r="R10">
+        <v>7.8660999999999995E-2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>35</v>
+      </c>
+      <c r="V10">
+        <v>64</v>
+      </c>
+      <c r="W10">
+        <v>71</v>
+      </c>
+      <c r="X10">
+        <v>82</v>
+      </c>
+      <c r="Y10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>7.5675999999999993E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.106387</v>
+      </c>
+      <c r="D11">
+        <v>0.122893</v>
+      </c>
+      <c r="E11">
+        <v>3.7511000000000003E-2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>19373085</v>
+      </c>
+      <c r="I11">
+        <v>27234968</v>
+      </c>
+      <c r="J11">
+        <v>31460711</v>
+      </c>
+      <c r="K11">
+        <v>9602924</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>7.5816999999999996E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.10233</v>
+      </c>
+      <c r="P11">
+        <v>0.12527099999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.12907399999999999</v>
+      </c>
+      <c r="R11">
+        <v>3.7518999999999997E-2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>37</v>
+      </c>
+      <c r="W11">
+        <v>32</v>
+      </c>
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1.2963000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.0896000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.6646E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.2498E-2</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3318553</v>
+      </c>
+      <c r="I12">
+        <v>5349451</v>
+      </c>
+      <c r="J12">
+        <v>6821402</v>
+      </c>
+      <c r="K12">
+        <v>3199551</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1.2945E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.1341E-2</v>
+      </c>
+      <c r="P12">
+        <v>8.267E-3</v>
+      </c>
+      <c r="Q12">
+        <v>5.3359999999999996E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>8.6899999999999998E-4</v>
+      </c>
+      <c r="C13">
+        <v>1.4430000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.9889999999999999E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.3869999999999998E-3</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>222559</v>
+      </c>
+      <c r="I13">
+        <v>369329</v>
+      </c>
+      <c r="J13">
+        <v>509123</v>
+      </c>
+      <c r="K13">
+        <v>611048</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>8.6899999999999998E-4</v>
+      </c>
+      <c r="O13">
+        <v>5.22E-4</v>
+      </c>
+      <c r="P13">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="Q13">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="R13">
+        <v>2.4039999999999999E-3</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="C14">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D14">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="E14">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>10082</v>
+      </c>
+      <c r="I14">
+        <v>10334</v>
+      </c>
+      <c r="J14">
+        <v>16301</v>
+      </c>
+      <c r="K14">
+        <v>48837</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="O14">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="P14">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="Q14">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="R14">
+        <v>1.92E-4</v>
+      </c>
+      <c r="T14">
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E15">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>804</v>
+      </c>
+      <c r="I15">
+        <v>265</v>
+      </c>
+      <c r="J15">
+        <v>661</v>
+      </c>
+      <c r="K15">
+        <v>1024</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="O15">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="P15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="Q15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="R15">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>12</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>14</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="6">
+    <mergeCell ref="M1:Y1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="T2:Y2"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2014,34 +3126,34 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="S1" s="6" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="S1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3553,20 +4665,20 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="G31" s="6" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -4441,27 +5553,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5592,31 +6704,31 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="H29" s="6" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="H29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="M29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="R29" s="6" t="s">
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="R29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -6924,19 +8036,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7655,19 +8767,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -8280,19 +9392,19 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -8944,13 +10056,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8993,44 +10105,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -9737,44 +10849,44 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -10481,44 +11593,44 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -11256,44 +12368,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -12000,44 +13112,44 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -12744,44 +13856,44 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -13464,7 +14576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868094-2645-4311-A60E-30E531845CF5}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -13474,44 +14586,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -14218,44 +15330,44 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -14377,44 +15489,44 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14864E3A-41B0-470E-870E-96AF47D09577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C560F-02B2-41A0-A92E-E08D85300A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2955" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="96">
   <si>
     <t>test1</t>
   </si>
@@ -388,6 +388,14 @@
   <si>
     <t>RUNTIME=120059</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/2, K=3, g=[5 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/2, K=5, g=[23 35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1792,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD83A1-2233-4A7B-9BE3-77F5B1566D51}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12356,10 +12364,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A52987-0DCA-4FBD-8D1C-1D294672BA58}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12367,9 +12375,9 @@
     <col min="8" max="8" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -12385,8 +12393,25 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>66</v>
       </c>
@@ -12406,8 +12431,27 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -12450,8 +12494,50 @@
       <c r="O3" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-12</v>
       </c>
@@ -12494,8 +12580,50 @@
       <c r="O4">
         <v>3383236</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>-12</v>
+      </c>
+      <c r="R4">
+        <v>0.42930600000000002</v>
+      </c>
+      <c r="S4">
+        <v>0.42957499999999998</v>
+      </c>
+      <c r="T4">
+        <v>0.36122799999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.49750800000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.41241899999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.19051699999999999</v>
+      </c>
+      <c r="Y4">
+        <v>-12</v>
+      </c>
+      <c r="Z4">
+        <v>10990235</v>
+      </c>
+      <c r="AA4">
+        <v>10997131</v>
+      </c>
+      <c r="AB4">
+        <v>9247435</v>
+      </c>
+      <c r="AC4">
+        <v>12736204</v>
+      </c>
+      <c r="AD4">
+        <v>10557938</v>
+      </c>
+      <c r="AE4">
+        <v>4877225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-10</v>
       </c>
@@ -12538,8 +12666,50 @@
       <c r="O5">
         <v>890517</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>-10</v>
+      </c>
+      <c r="R5">
+        <v>0.41156500000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.41138599999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.32733200000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.49568499999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.29056399999999999</v>
+      </c>
+      <c r="W5">
+        <v>3.9120000000000002E-2</v>
+      </c>
+      <c r="Y5">
+        <v>-10</v>
+      </c>
+      <c r="Z5">
+        <v>10536067</v>
+      </c>
+      <c r="AA5">
+        <v>10531491</v>
+      </c>
+      <c r="AB5">
+        <v>8379698</v>
+      </c>
+      <c r="AC5">
+        <v>12689537</v>
+      </c>
+      <c r="AD5">
+        <v>7438448</v>
+      </c>
+      <c r="AE5">
+        <v>1001464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-8</v>
       </c>
@@ -12582,8 +12752,50 @@
       <c r="O6">
         <v>94785</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>-8</v>
+      </c>
+      <c r="R6">
+        <v>0.38911899999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.38912000000000002</v>
+      </c>
+      <c r="T6">
+        <v>0.286721</v>
+      </c>
+      <c r="U6">
+        <v>0.49163499999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.107554</v>
+      </c>
+      <c r="W6">
+        <v>2.4450000000000001E-3</v>
+      </c>
+      <c r="Y6">
+        <v>-8</v>
+      </c>
+      <c r="Z6">
+        <v>9961446</v>
+      </c>
+      <c r="AA6">
+        <v>9961463</v>
+      </c>
+      <c r="AB6">
+        <v>7340046</v>
+      </c>
+      <c r="AC6">
+        <v>12585866</v>
+      </c>
+      <c r="AD6">
+        <v>2753381</v>
+      </c>
+      <c r="AE6">
+        <v>62599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
@@ -12626,8 +12838,50 @@
       <c r="O7">
         <v>4538</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>-6</v>
+      </c>
+      <c r="R7">
+        <v>0.36160399999999998</v>
+      </c>
+      <c r="S7">
+        <v>0.36154799999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.23911399999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.48302800000000001</v>
+      </c>
+      <c r="V7">
+        <v>1.2512000000000001E-2</v>
+      </c>
+      <c r="W7">
+        <v>1.25E-4</v>
+      </c>
+      <c r="Y7">
+        <v>-6</v>
+      </c>
+      <c r="Z7">
+        <v>9257065</v>
+      </c>
+      <c r="AA7">
+        <v>9255641</v>
+      </c>
+      <c r="AB7">
+        <v>6121308</v>
+      </c>
+      <c r="AC7">
+        <v>12365517</v>
+      </c>
+      <c r="AD7">
+        <v>320298</v>
+      </c>
+      <c r="AE7">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-4</v>
       </c>
@@ -12670,8 +12924,50 @@
       <c r="O8">
         <v>273</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>-4</v>
+      </c>
+      <c r="R8">
+        <v>0.32777899999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.32772299999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.18617400000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.46252199999999999</v>
+      </c>
+      <c r="V8">
+        <v>5.8699999999999996E-4</v>
+      </c>
+      <c r="W8">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="Y8">
+        <v>-4</v>
+      </c>
+      <c r="Z8">
+        <v>8391132</v>
+      </c>
+      <c r="AA8">
+        <v>8389719</v>
+      </c>
+      <c r="AB8">
+        <v>4766061</v>
+      </c>
+      <c r="AC8">
+        <v>11840561</v>
+      </c>
+      <c r="AD8">
+        <v>15017</v>
+      </c>
+      <c r="AE8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-2</v>
       </c>
@@ -12714,8 +13010,50 @@
       <c r="O9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>0.28712399999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.287221</v>
+      </c>
+      <c r="T9">
+        <v>0.13061200000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.410437</v>
+      </c>
+      <c r="V9">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="W9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="Y9">
+        <v>-2</v>
+      </c>
+      <c r="Z9">
+        <v>7350387</v>
+      </c>
+      <c r="AA9">
+        <v>7352862</v>
+      </c>
+      <c r="AB9">
+        <v>3343656</v>
+      </c>
+      <c r="AC9">
+        <v>10507185</v>
+      </c>
+      <c r="AD9">
+        <v>980</v>
+      </c>
+      <c r="AE9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -12758,8 +13096,50 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.23990900000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.239787</v>
+      </c>
+      <c r="T10">
+        <v>7.8647999999999996E-2</v>
+      </c>
+      <c r="U10">
+        <v>0.285362</v>
+      </c>
+      <c r="V10">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>6141665</v>
+      </c>
+      <c r="AA10">
+        <v>6138550</v>
+      </c>
+      <c r="AB10">
+        <v>2013396</v>
+      </c>
+      <c r="AC10">
+        <v>7305256</v>
+      </c>
+      <c r="AD10">
+        <v>102</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -12802,8 +13182,50 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0.18664600000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.18660399999999999</v>
+      </c>
+      <c r="T11">
+        <v>3.7516000000000001E-2</v>
+      </c>
+      <c r="U11">
+        <v>0.10227799999999999</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>4778143</v>
+      </c>
+      <c r="AA11">
+        <v>4777067</v>
+      </c>
+      <c r="AB11">
+        <v>960404</v>
+      </c>
+      <c r="AC11">
+        <v>2618317</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -12846,8 +13268,50 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>0.13125700000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.13119800000000001</v>
+      </c>
+      <c r="T12">
+        <v>1.2515999999999999E-2</v>
+      </c>
+      <c r="U12">
+        <v>1.1416000000000001E-2</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>3360169</v>
+      </c>
+      <c r="AA12">
+        <v>3358665</v>
+      </c>
+      <c r="AB12">
+        <v>320416</v>
+      </c>
+      <c r="AC12">
+        <v>292242</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -12890,8 +13354,50 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>7.9129000000000005E-2</v>
+      </c>
+      <c r="S13">
+        <v>7.9158000000000006E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.3909999999999999E-3</v>
+      </c>
+      <c r="U13">
+        <v>5.1400000000000003E-4</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>2025711</v>
+      </c>
+      <c r="AA13">
+        <v>2026453</v>
+      </c>
+      <c r="AB13">
+        <v>61203</v>
+      </c>
+      <c r="AC13">
+        <v>13148</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -12934,8 +13440,50 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>3.7808000000000001E-2</v>
+      </c>
+      <c r="S14">
+        <v>3.7838999999999998E-2</v>
+      </c>
+      <c r="T14">
+        <v>1.92E-4</v>
+      </c>
+      <c r="U14">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>967872</v>
+      </c>
+      <c r="AA14">
+        <v>968682</v>
+      </c>
+      <c r="AB14">
+        <v>4921</v>
+      </c>
+      <c r="AC14">
+        <v>1000</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -12978,8 +13526,50 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>1.2682000000000001E-2</v>
+      </c>
+      <c r="S15">
+        <v>1.2677000000000001E-2</v>
+      </c>
+      <c r="T15">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="U15">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>324655</v>
+      </c>
+      <c r="AA15">
+        <v>324543</v>
+      </c>
+      <c r="AB15">
+        <v>93</v>
+      </c>
+      <c r="AC15">
+        <v>81</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -13022,8 +13612,50 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>12</v>
+      </c>
+      <c r="R16">
+        <v>2.4550000000000002E-3</v>
+      </c>
+      <c r="S16">
+        <v>2.4369999999999999E-3</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>12</v>
+      </c>
+      <c r="Z16">
+        <v>62843</v>
+      </c>
+      <c r="AA16">
+        <v>62382</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -13066,8 +13698,50 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>2.02E-4</v>
+      </c>
+      <c r="S17">
+        <v>1.95E-4</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>14</v>
+      </c>
+      <c r="Z17">
+        <v>5163</v>
+      </c>
+      <c r="AA17">
+        <v>4982</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -13110,8 +13784,50 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="S18">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>16</v>
+      </c>
+      <c r="Z18">
+        <v>115</v>
+      </c>
+      <c r="AA18">
+        <v>119</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>89</v>
       </c>
@@ -13130,7 +13846,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
@@ -13151,7 +13867,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -13195,7 +13911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -13239,7 +13955,7 @@
         <v>4408381</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-10</v>
       </c>
@@ -13283,7 +13999,7 @@
         <v>1337417</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-8</v>
       </c>
@@ -13327,7 +14043,7 @@
         <v>156895</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-6</v>
       </c>
@@ -13371,7 +14087,7 @@
         <v>6499</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-4</v>
       </c>
@@ -13415,7 +14131,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2</v>
       </c>
@@ -13459,7 +14175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -13503,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -13547,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -14555,7 +15271,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="Q1:AE1"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="I42:O42"/>

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C560F-02B2-41A0-A92E-E08D85300A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9988AF-8D1F-4B27-BEEE-CECE3B1CB47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="10w次_scheme_SNR横轴" sheetId="7" r:id="rId7"/>
     <sheet name="10w次_scheme_EbN0横轴" sheetId="8" r:id="rId8"/>
     <sheet name="20w次_scheme_EbN0横轴" sheetId="9" r:id="rId9"/>
-    <sheet name="1E6_difRsameK_EbN0" sheetId="10" r:id="rId10"/>
+    <sheet name="1E6_difR_difK_EbN0" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="97">
   <si>
     <t>test1</t>
   </si>
@@ -396,6 +397,10 @@
   <si>
     <t>R=1/2, K=5, g=[23 35]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime = 100w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1798,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD83A1-2233-4A7B-9BE3-77F5B1566D51}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2964,6 +2969,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="M1:Y1"/>
@@ -2976,6 +2986,19 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5A1859-9CE2-4BC5-86A3-727AB94A05C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8032,7 +8055,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12366,8 +12389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A52987-0DCA-4FBD-8D1C-1D294672BA58}">
   <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Mat_sim_results/250325重新仿真/仿真数据.xlsx
+++ b/Mat_sim_results/250325重新仿真/仿真数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\250325重新仿真\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\Convolutional-Code_Spread-Spectrum-Communication_Matlab-Verilog\Mat_sim_results\250325重新仿真\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9988AF-8D1F-4B27-BEEE-CECE3B1CB47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035101F7-B80F-4CD7-8464-6A9C6E6D7770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="1215" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="97">
   <si>
     <t>test1</t>
   </si>
@@ -481,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,6 +499,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1803,85 +1806,83 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD83A1-2233-4A7B-9BE3-77F5B1566D51}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="3.75" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-12</v>
       </c>
@@ -1984,40 +1985,40 @@
         <v>-12</v>
       </c>
       <c r="N4">
-        <v>0.48789500000000002</v>
+        <v>0.48787399999999997</v>
       </c>
       <c r="O4">
-        <v>0.49763000000000002</v>
+        <v>0.497583</v>
       </c>
       <c r="P4">
-        <v>0.499143</v>
+        <v>0.49918400000000002</v>
       </c>
       <c r="Q4">
-        <v>0.499087</v>
+        <v>0.49909399999999998</v>
       </c>
       <c r="R4">
-        <v>0.36115599999999998</v>
+        <v>0.36115999999999998</v>
       </c>
       <c r="T4">
         <v>-12</v>
       </c>
       <c r="U4">
-        <v>127</v>
+        <v>124895778</v>
       </c>
       <c r="V4">
-        <v>149</v>
+        <v>127381313</v>
       </c>
       <c r="W4">
-        <v>125</v>
+        <v>127790988</v>
       </c>
       <c r="X4">
-        <v>133</v>
+        <v>127768013</v>
       </c>
       <c r="Y4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>92456992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-10</v>
       </c>
@@ -2052,40 +2053,40 @@
         <v>-10</v>
       </c>
       <c r="N5">
-        <v>0.47980299999999998</v>
+        <v>0.47989900000000002</v>
       </c>
       <c r="O5">
-        <v>0.49563099999999999</v>
+        <v>0.495589</v>
       </c>
       <c r="P5">
-        <v>0.49873600000000001</v>
+        <v>0.49871900000000002</v>
       </c>
       <c r="Q5">
-        <v>0.49865300000000001</v>
+        <v>0.49856200000000001</v>
       </c>
       <c r="R5">
-        <v>0.327403</v>
+        <v>0.32725100000000001</v>
       </c>
       <c r="T5">
         <v>-10</v>
       </c>
       <c r="U5">
-        <v>109</v>
+        <v>122854138</v>
       </c>
       <c r="V5">
-        <v>141</v>
+        <v>126870818</v>
       </c>
       <c r="W5">
-        <v>133</v>
+        <v>127672141</v>
       </c>
       <c r="X5">
-        <v>135</v>
+        <v>127631993</v>
       </c>
       <c r="Y5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+        <v>83776153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-8</v>
       </c>
@@ -2120,40 +2121,40 @@
         <v>-8</v>
       </c>
       <c r="N6">
-        <v>0.46612599999999998</v>
+        <v>0.46606300000000001</v>
       </c>
       <c r="O6">
-        <v>0.491784</v>
+        <v>0.49170999999999998</v>
       </c>
       <c r="P6">
-        <v>0.49797200000000003</v>
+        <v>0.49793700000000002</v>
       </c>
       <c r="Q6">
-        <v>0.49776300000000001</v>
+        <v>0.49781300000000001</v>
       </c>
       <c r="R6">
-        <v>0.28671200000000002</v>
+        <v>0.28667300000000001</v>
       </c>
       <c r="T6">
         <v>-8</v>
       </c>
       <c r="U6">
-        <v>104</v>
+        <v>119312194</v>
       </c>
       <c r="V6">
-        <v>128</v>
+        <v>125877872</v>
       </c>
       <c r="W6">
-        <v>146</v>
+        <v>127471826</v>
       </c>
       <c r="X6">
-        <v>118</v>
+        <v>127440218</v>
       </c>
       <c r="Y6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>73388318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
@@ -2188,40 +2189,40 @@
         <v>-6</v>
       </c>
       <c r="N7">
-        <v>0.44120599999999999</v>
+        <v>0.44142199999999998</v>
       </c>
       <c r="O7">
-        <v>0.482929</v>
+        <v>0.483045</v>
       </c>
       <c r="P7">
-        <v>0.49617699999999998</v>
+        <v>0.496311</v>
       </c>
       <c r="Q7">
-        <v>0.495923</v>
+        <v>0.49596499999999999</v>
       </c>
       <c r="R7">
-        <v>0.23915900000000001</v>
+        <v>0.23916799999999999</v>
       </c>
       <c r="T7">
         <v>-6</v>
       </c>
       <c r="U7">
-        <v>119</v>
+        <v>113003977</v>
       </c>
       <c r="V7">
-        <v>116</v>
+        <v>123659512</v>
       </c>
       <c r="W7">
-        <v>139</v>
+        <v>127055539</v>
       </c>
       <c r="X7">
-        <v>134</v>
+        <v>126967059</v>
       </c>
       <c r="Y7">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>61227051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-4</v>
       </c>
@@ -2256,40 +2257,40 @@
         <v>-4</v>
       </c>
       <c r="N8">
-        <v>0.39658199999999999</v>
+        <v>0.39688000000000001</v>
       </c>
       <c r="O8">
-        <v>0.46248299999999998</v>
+        <v>0.46259699999999998</v>
       </c>
       <c r="P8">
-        <v>0.49099399999999999</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.491396</v>
+        <v>0.49129499999999998</v>
       </c>
       <c r="R8">
-        <v>0.186141</v>
+        <v>0.18609700000000001</v>
       </c>
       <c r="T8">
         <v>-4</v>
       </c>
       <c r="U8">
-        <v>109</v>
+        <v>101601224</v>
       </c>
       <c r="V8">
-        <v>136</v>
+        <v>118424787</v>
       </c>
       <c r="W8">
-        <v>105</v>
+        <v>125644740</v>
       </c>
       <c r="X8">
-        <v>133</v>
+        <v>125771456</v>
       </c>
       <c r="Y8">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>47640917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-2</v>
       </c>
@@ -2324,40 +2325,40 @@
         <v>-2</v>
       </c>
       <c r="N9">
-        <v>0.31864100000000001</v>
+        <v>0.31854300000000002</v>
       </c>
       <c r="O9">
-        <v>0.40997600000000001</v>
+        <v>0.41014800000000001</v>
       </c>
       <c r="P9">
-        <v>0.467561</v>
+        <v>0.46750399999999998</v>
       </c>
       <c r="Q9">
-        <v>0.47470800000000002</v>
+        <v>0.47481800000000002</v>
       </c>
       <c r="R9">
-        <v>0.13059799999999999</v>
+        <v>0.130606</v>
       </c>
       <c r="T9">
         <v>-2</v>
       </c>
       <c r="U9">
-        <v>44</v>
+        <v>81546888</v>
       </c>
       <c r="V9">
-        <v>99</v>
+        <v>104997988</v>
       </c>
       <c r="W9">
-        <v>104</v>
+        <v>119681051</v>
       </c>
       <c r="X9">
-        <v>136</v>
+        <v>121553531</v>
       </c>
       <c r="Y9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>33435195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2392,40 +2393,40 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.19936300000000001</v>
+        <v>0.199272</v>
       </c>
       <c r="O10">
-        <v>0.28521200000000002</v>
+        <v>0.28541299999999997</v>
       </c>
       <c r="P10">
-        <v>0.366143</v>
+        <v>0.36613000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.39420699999999997</v>
+        <v>0.39392500000000003</v>
       </c>
       <c r="R10">
-        <v>7.8660999999999995E-2</v>
+        <v>7.8626000000000001E-2</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>35</v>
+        <v>51013551</v>
       </c>
       <c r="V10">
-        <v>64</v>
+        <v>73065665</v>
       </c>
       <c r="W10">
-        <v>71</v>
+        <v>93729402</v>
       </c>
       <c r="X10">
-        <v>82</v>
+        <v>100844849</v>
       </c>
       <c r="Y10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>20128223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2460,40 +2461,40 @@
         <v>2</v>
       </c>
       <c r="N11">
-        <v>7.5816999999999996E-2</v>
+        <v>7.5798000000000004E-2</v>
       </c>
       <c r="O11">
-        <v>0.10233</v>
+        <v>0.10208399999999999</v>
       </c>
       <c r="P11">
-        <v>0.12527099999999999</v>
+        <v>0.125412</v>
       </c>
       <c r="Q11">
-        <v>0.12907399999999999</v>
+        <v>0.129028</v>
       </c>
       <c r="R11">
-        <v>3.7518999999999997E-2</v>
+        <v>3.7497999999999997E-2</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>19404332</v>
       </c>
       <c r="V11">
-        <v>37</v>
+        <v>26133446</v>
       </c>
       <c r="W11">
-        <v>32</v>
+        <v>32105367</v>
       </c>
       <c r="X11">
-        <v>25</v>
+        <v>33031054</v>
       </c>
       <c r="Y11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>9599580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2528,40 +2529,40 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>1.2945E-2</v>
+        <v>1.2970000000000001E-2</v>
       </c>
       <c r="O12">
-        <v>1.1341E-2</v>
+        <v>1.1358999999999999E-2</v>
       </c>
       <c r="P12">
-        <v>8.267E-3</v>
+        <v>8.345E-3</v>
       </c>
       <c r="Q12">
-        <v>5.3359999999999996E-3</v>
+        <v>5.2890000000000003E-3</v>
       </c>
       <c r="R12">
-        <v>1.2460000000000001E-2</v>
+        <v>1.2499E-2</v>
       </c>
       <c r="T12">
         <v>4</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>3320340</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2907923</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>2136306</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1354108</v>
       </c>
       <c r="Y12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>3199864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2596,40 +2597,40 @@
         <v>6</v>
       </c>
       <c r="N13">
-        <v>8.6899999999999998E-4</v>
+        <v>8.7299999999999997E-4</v>
       </c>
       <c r="O13">
-        <v>5.22E-4</v>
+        <v>5.2099999999999998E-4</v>
       </c>
       <c r="P13">
-        <v>3.5500000000000001E-4</v>
+        <v>3.6299999999999999E-4</v>
       </c>
       <c r="Q13">
-        <v>2.5099999999999998E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="R13">
-        <v>2.4039999999999999E-3</v>
+        <v>2.3890000000000001E-3</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>223444</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>133347</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>92846</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>63980</v>
       </c>
       <c r="Y13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>611699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2664,40 +2665,40 @@
         <v>8</v>
       </c>
       <c r="N14">
-        <v>4.0000000000000003E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="O14">
-        <v>3.8999999999999999E-5</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="P14">
-        <v>3.8000000000000002E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="Q14">
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="R14">
-        <v>1.92E-4</v>
+        <v>1.9100000000000001E-4</v>
       </c>
       <c r="T14">
         <v>8</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>10051</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>9630</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>9263</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>7720</v>
       </c>
       <c r="Y14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>48774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="O15">
-        <v>3.9999999999999998E-6</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="P15">
         <v>3.0000000000000001E-6</v>
@@ -2750,22 +2751,22 @@
         <v>10</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2818,22 +2819,22 @@
         <v>12</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2892,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2969,13 +2970,677 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>-12</v>
+      </c>
+      <c r="N24">
+        <v>0.48789500000000002</v>
+      </c>
+      <c r="O24">
+        <v>0.49763000000000002</v>
+      </c>
+      <c r="P24">
+        <v>0.499143</v>
+      </c>
+      <c r="Q24">
+        <v>0.499087</v>
+      </c>
+      <c r="R24">
+        <v>0.36115599999999998</v>
+      </c>
+      <c r="T24">
+        <v>-12</v>
+      </c>
+      <c r="U24">
+        <v>127</v>
+      </c>
+      <c r="V24">
+        <v>149</v>
+      </c>
+      <c r="W24">
+        <v>125</v>
+      </c>
+      <c r="X24">
+        <v>133</v>
+      </c>
+      <c r="Y24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>-10</v>
+      </c>
+      <c r="N25">
+        <v>0.47980299999999998</v>
+      </c>
+      <c r="O25">
+        <v>0.49563099999999999</v>
+      </c>
+      <c r="P25">
+        <v>0.49873600000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.49865300000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.327403</v>
+      </c>
+      <c r="T25">
+        <v>-10</v>
+      </c>
+      <c r="U25">
+        <v>109</v>
+      </c>
+      <c r="V25">
+        <v>141</v>
+      </c>
+      <c r="W25">
+        <v>133</v>
+      </c>
+      <c r="X25">
+        <v>135</v>
+      </c>
+      <c r="Y25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>-8</v>
+      </c>
+      <c r="N26">
+        <v>0.46612599999999998</v>
+      </c>
+      <c r="O26">
+        <v>0.491784</v>
+      </c>
+      <c r="P26">
+        <v>0.49797200000000003</v>
+      </c>
+      <c r="Q26">
+        <v>0.49776300000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.28671200000000002</v>
+      </c>
+      <c r="T26">
+        <v>-8</v>
+      </c>
+      <c r="U26">
+        <v>104</v>
+      </c>
+      <c r="V26">
+        <v>128</v>
+      </c>
+      <c r="W26">
+        <v>146</v>
+      </c>
+      <c r="X26">
+        <v>118</v>
+      </c>
+      <c r="Y26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>-6</v>
+      </c>
+      <c r="N27">
+        <v>0.44120599999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.482929</v>
+      </c>
+      <c r="P27">
+        <v>0.49617699999999998</v>
+      </c>
+      <c r="Q27">
+        <v>0.495923</v>
+      </c>
+      <c r="R27">
+        <v>0.23915900000000001</v>
+      </c>
+      <c r="T27">
+        <v>-6</v>
+      </c>
+      <c r="U27">
+        <v>119</v>
+      </c>
+      <c r="V27">
+        <v>116</v>
+      </c>
+      <c r="W27">
+        <v>139</v>
+      </c>
+      <c r="X27">
+        <v>134</v>
+      </c>
+      <c r="Y27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>-4</v>
+      </c>
+      <c r="N28">
+        <v>0.39658199999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.46248299999999998</v>
+      </c>
+      <c r="P28">
+        <v>0.49099399999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.491396</v>
+      </c>
+      <c r="R28">
+        <v>0.186141</v>
+      </c>
+      <c r="T28">
+        <v>-4</v>
+      </c>
+      <c r="U28">
+        <v>109</v>
+      </c>
+      <c r="V28">
+        <v>136</v>
+      </c>
+      <c r="W28">
+        <v>105</v>
+      </c>
+      <c r="X28">
+        <v>133</v>
+      </c>
+      <c r="Y28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>-2</v>
+      </c>
+      <c r="N29">
+        <v>0.31864100000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.40997600000000001</v>
+      </c>
+      <c r="P29">
+        <v>0.467561</v>
+      </c>
+      <c r="Q29">
+        <v>0.47470800000000002</v>
+      </c>
+      <c r="R29">
+        <v>0.13059799999999999</v>
+      </c>
+      <c r="T29">
+        <v>-2</v>
+      </c>
+      <c r="U29">
+        <v>44</v>
+      </c>
+      <c r="V29">
+        <v>99</v>
+      </c>
+      <c r="W29">
+        <v>104</v>
+      </c>
+      <c r="X29">
+        <v>136</v>
+      </c>
+      <c r="Y29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.19936300000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.28521200000000002</v>
+      </c>
+      <c r="P30">
+        <v>0.366143</v>
+      </c>
+      <c r="Q30">
+        <v>0.39420699999999997</v>
+      </c>
+      <c r="R30">
+        <v>7.8660999999999995E-2</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>35</v>
+      </c>
+      <c r="V30">
+        <v>64</v>
+      </c>
+      <c r="W30">
+        <v>71</v>
+      </c>
+      <c r="X30">
+        <v>82</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>7.5816999999999996E-2</v>
+      </c>
+      <c r="O31">
+        <v>0.10233</v>
+      </c>
+      <c r="P31">
+        <v>0.12527099999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.12907399999999999</v>
+      </c>
+      <c r="R31">
+        <v>3.7518999999999997E-2</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>37</v>
+      </c>
+      <c r="W31">
+        <v>32</v>
+      </c>
+      <c r="X31">
+        <v>25</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>1.2945E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.1341E-2</v>
+      </c>
+      <c r="P32">
+        <v>8.267E-3</v>
+      </c>
+      <c r="Q32">
+        <v>5.3359999999999996E-3</v>
+      </c>
+      <c r="R32">
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:25" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>8.6899999999999998E-4</v>
+      </c>
+      <c r="O33">
+        <v>5.22E-4</v>
+      </c>
+      <c r="P33">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="Q33">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="R33">
+        <v>2.4039999999999999E-3</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="13:25" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>8</v>
+      </c>
+      <c r="N34">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="O34">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="P34">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="Q34">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="R34">
+        <v>1.92E-4</v>
+      </c>
+      <c r="T34">
+        <v>8</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="13:25" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="O35">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="P35">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="Q35">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="R35">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="13:25" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>12</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>12</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="13:25" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>14</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="13:25" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>16</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>16</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="13:25" x14ac:dyDescent="0.2">
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="M21:Y21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="T22:Y22"/>
     <mergeCell ref="M1:Y1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="T2:Y2"/>
@@ -3157,34 +3822,34 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="S1" s="7" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="S1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4696,20 +5361,20 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="G31" s="7" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -5584,27 +6249,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6735,31 +7400,31 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="H29" s="7" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="H29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="M29" s="7" t="s">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="M29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="R29" s="7" t="s">
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="R29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -8067,19 +8732,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8798,19 +9463,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -9423,19 +10088,19 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -10087,13 +10752,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10136,44 +10801,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -10880,44 +11545,44 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -11624,44 +12289,44 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -12399,80 +13064,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -13851,44 +14516,44 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -14595,44 +15260,44 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -15328,44 +15993,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -16072,44 +16737,44 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -16231,44 +16896,44 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
